--- a/futian.xlsx
+++ b/futian.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
   <si>
     <t>schoolName</t>
   </si>
   <si>
-    <t>total</t>
+    <t>total（万）</t>
   </si>
   <si>
     <t>unit</t>
@@ -47,7 +47,7 @@
     <t>莲花小学</t>
   </si>
   <si>
-    <t>520万</t>
+    <t>520</t>
   </si>
   <si>
     <t>66994元/平米</t>
@@ -74,7 +74,7 @@
     <t>下沙小学</t>
   </si>
   <si>
-    <t>450万</t>
+    <t>450</t>
   </si>
   <si>
     <t>67336元/平米</t>
@@ -95,7 +95,7 @@
     <t>https://sz.lianjia.com/ershoufang/105101434521.html</t>
   </si>
   <si>
-    <t>415万</t>
+    <t>415</t>
   </si>
   <si>
     <t>68078元/平米</t>
@@ -107,7 +107,7 @@
     <t>https://sz.lianjia.com/ershoufang/105101344088.html</t>
   </si>
   <si>
-    <t>500万</t>
+    <t>500</t>
   </si>
   <si>
     <t>71003元/平米</t>
@@ -122,7 +122,7 @@
     <t>https://sz.lianjia.com/ershoufang/105101301012.html</t>
   </si>
   <si>
-    <t>430万</t>
+    <t>430</t>
   </si>
   <si>
     <t>70205元/平米</t>
@@ -137,7 +137,7 @@
     <t>https://sz.lianjia.com/ershoufang/105101424903.html</t>
   </si>
   <si>
-    <t>436万</t>
+    <t>436</t>
   </si>
   <si>
     <t>72788元/平米</t>
@@ -152,7 +152,7 @@
     <t>https://sz.lianjia.com/ershoufang/105101295826.html</t>
   </si>
   <si>
-    <t>469万</t>
+    <t>469</t>
   </si>
   <si>
     <t>70179元/平米</t>
@@ -188,7 +188,7 @@
     <t>https://sz.lianjia.com/ershoufang/105101414170.html</t>
   </si>
   <si>
-    <t>435万</t>
+    <t>435</t>
   </si>
   <si>
     <t>70071元/平米</t>
@@ -230,7 +230,7 @@
     <t>https://sz.lianjia.com/ershoufang/105101087532.html</t>
   </si>
   <si>
-    <t>460万</t>
+    <t>460</t>
   </si>
   <si>
     <t>70445元/平米</t>
@@ -242,7 +242,7 @@
     <t>https://sz.lianjia.com/ershoufang/105101284900.html</t>
   </si>
   <si>
-    <t>455万</t>
+    <t>455</t>
   </si>
   <si>
     <t>75108元/平米</t>
@@ -263,7 +263,7 @@
     <t>https://sz.lianjia.com/ershoufang/105101207929.html</t>
   </si>
   <si>
-    <t>420万</t>
+    <t>420</t>
   </si>
   <si>
     <t>52500元/平米</t>
@@ -284,7 +284,7 @@
     <t>https://sz.lianjia.com/ershoufang/105100484153.html</t>
   </si>
   <si>
-    <t>530万</t>
+    <t>530</t>
   </si>
   <si>
     <t>54640元/平米</t>
@@ -296,7 +296,7 @@
     <t>https://sz.lianjia.com/ershoufang/105101188890.html</t>
   </si>
   <si>
-    <t>540万</t>
+    <t>540</t>
   </si>
   <si>
     <t>55556元/平米</t>
@@ -309,6 +309,1497 @@
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101159403.html</t>
+  </si>
+  <si>
+    <t>景龙小学</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>77457元/平米</t>
+  </si>
+  <si>
+    <t>怡枫园</t>
+  </si>
+  <si>
+    <t>2008年建/板塔结合</t>
+  </si>
+  <si>
+    <t>61.97平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101418502.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101491543.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101504139.html</t>
+  </si>
+  <si>
+    <t>58863元/平米</t>
+  </si>
+  <si>
+    <t>润丰园</t>
+  </si>
+  <si>
+    <t>1999年建/板塔结合</t>
+  </si>
+  <si>
+    <t>90.04平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101322839.html</t>
+  </si>
+  <si>
+    <t>57753元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101425980.html</t>
+  </si>
+  <si>
+    <t>59987元/平米</t>
+  </si>
+  <si>
+    <t>90.02平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101202034.html</t>
+  </si>
+  <si>
+    <t>56085元/平米</t>
+  </si>
+  <si>
+    <t>景莲花园</t>
+  </si>
+  <si>
+    <t>1997年建/板塔结合</t>
+  </si>
+  <si>
+    <t>94.5平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101432610.html</t>
+  </si>
+  <si>
+    <t>61837元/平米</t>
+  </si>
+  <si>
+    <t>安通花园</t>
+  </si>
+  <si>
+    <t>74.39平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101508664.html</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>70529元/平米</t>
+  </si>
+  <si>
+    <t>凯旋豪庭</t>
+  </si>
+  <si>
+    <t>2007年建/板塔结合</t>
+  </si>
+  <si>
+    <t>66.64平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101297820.html</t>
+  </si>
+  <si>
+    <t>74997元/平米</t>
+  </si>
+  <si>
+    <t>66.67平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101210592.html</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>74280元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101279869.html</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>77946元/平米</t>
+  </si>
+  <si>
+    <t>65.43平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101408585.html</t>
+  </si>
+  <si>
+    <t>75561元/平米</t>
+  </si>
+  <si>
+    <t>65.51平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101364350.html</t>
+  </si>
+  <si>
+    <t>华新小学</t>
+  </si>
+  <si>
+    <t>57044元/平米</t>
+  </si>
+  <si>
+    <t>乐山居</t>
+  </si>
+  <si>
+    <t>1996年建/板塔结合</t>
+  </si>
+  <si>
+    <t>80.64平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100555606.html</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>56356元/平米</t>
+  </si>
+  <si>
+    <t>81.27平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101375449.html</t>
+  </si>
+  <si>
+    <t>新沙小学</t>
+  </si>
+  <si>
+    <t>55971元/平米</t>
+  </si>
+  <si>
+    <t>朗晴馨洲</t>
+  </si>
+  <si>
+    <t>2003年建/板塔结合</t>
+  </si>
+  <si>
+    <t>80.4平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101383934.html</t>
+  </si>
+  <si>
+    <t>61700元/平米</t>
+  </si>
+  <si>
+    <t>85.9平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101403843.html</t>
+  </si>
+  <si>
+    <t>58208元/平米</t>
+  </si>
+  <si>
+    <t>3室1厅</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100869699.html</t>
+  </si>
+  <si>
+    <t>59826元/平米</t>
+  </si>
+  <si>
+    <t>嘉洲豪园</t>
+  </si>
+  <si>
+    <t>2001年建/板塔结合</t>
+  </si>
+  <si>
+    <t>76.89平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101470867.html</t>
+  </si>
+  <si>
+    <t>52146元/平米</t>
+  </si>
+  <si>
+    <t>83.42平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101343290.html</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>63959元/平米</t>
+  </si>
+  <si>
+    <t>1998年建/板塔结合</t>
+  </si>
+  <si>
+    <t>80.99平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101461852.html</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>53056元/平米</t>
+  </si>
+  <si>
+    <t>80.67平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101256260.html</t>
+  </si>
+  <si>
+    <t>54736元/平米</t>
+  </si>
+  <si>
+    <t>96.83平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101091075.html</t>
+  </si>
+  <si>
+    <t>61248元/平米</t>
+  </si>
+  <si>
+    <t>80.82平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101398073.html</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>57875元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101488063.html</t>
+  </si>
+  <si>
+    <t>53924元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101425742.html</t>
+  </si>
+  <si>
+    <t>56027元/平米</t>
+  </si>
+  <si>
+    <t>76.75平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101456017.html</t>
+  </si>
+  <si>
+    <t>63617元/平米</t>
+  </si>
+  <si>
+    <t>81.74平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101454822.html</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>60010元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101426645.html</t>
+  </si>
+  <si>
+    <t>66792元/平米</t>
+  </si>
+  <si>
+    <t>绿景新洋房</t>
+  </si>
+  <si>
+    <t>2004年建/板塔结合</t>
+  </si>
+  <si>
+    <t>74.86平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101466953.html</t>
+  </si>
+  <si>
+    <t>64163元/平米</t>
+  </si>
+  <si>
+    <t>74.81平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101163106.html</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>41027元/平米</t>
+  </si>
+  <si>
+    <t>3室3厅</t>
+  </si>
+  <si>
+    <t>工商宿舍楼</t>
+  </si>
+  <si>
+    <t>未知年建/暂无数据</t>
+  </si>
+  <si>
+    <t>98.96平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101149594.html</t>
+  </si>
+  <si>
+    <t>60381元/平米</t>
+  </si>
+  <si>
+    <t>绿景新苑</t>
+  </si>
+  <si>
+    <t>2002年建/塔楼</t>
+  </si>
+  <si>
+    <t>86.12平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101245849.html</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>60084元/平米</t>
+  </si>
+  <si>
+    <t>2002年建/板楼</t>
+  </si>
+  <si>
+    <t>85.88平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100924082.html</t>
+  </si>
+  <si>
+    <t>68587元/平米</t>
+  </si>
+  <si>
+    <t>骏皇嘉园</t>
+  </si>
+  <si>
+    <t>2006年建/板塔结合</t>
+  </si>
+  <si>
+    <t>66.34平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101294059.html</t>
+  </si>
+  <si>
+    <t>67712元/平米</t>
+  </si>
+  <si>
+    <t>65.72平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101237176.html</t>
+  </si>
+  <si>
+    <t>69125元/平米</t>
+  </si>
+  <si>
+    <t>65.1平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101323535.html</t>
+  </si>
+  <si>
+    <t>68431元/平米</t>
+  </si>
+  <si>
+    <t>65.76平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101174086.html</t>
+  </si>
+  <si>
+    <t>52843元/平米</t>
+  </si>
+  <si>
+    <t>星河雅居</t>
+  </si>
+  <si>
+    <t>2000年建/板塔结合</t>
+  </si>
+  <si>
+    <t>102.19平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101488043.html</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>59923元/平米</t>
+  </si>
+  <si>
+    <t>77.6平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101470749.html</t>
+  </si>
+  <si>
+    <t>55326元/平米</t>
+  </si>
+  <si>
+    <t>86.76平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101216724.html</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>53401元/平米</t>
+  </si>
+  <si>
+    <t>95.88平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100974772.html</t>
+  </si>
+  <si>
+    <t>58610元/平米</t>
+  </si>
+  <si>
+    <t>西北 东北</t>
+  </si>
+  <si>
+    <t>76.78平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101255767.html</t>
+  </si>
+  <si>
+    <t>57444元/平米</t>
+  </si>
+  <si>
+    <t>83.56平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100532755.html</t>
+  </si>
+  <si>
+    <t>57054元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101430033.html</t>
+  </si>
+  <si>
+    <t>58413元/平米</t>
+  </si>
+  <si>
+    <t>87.31平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101428222.html</t>
+  </si>
+  <si>
+    <t>56945元/平米</t>
+  </si>
+  <si>
+    <t>湖北宝丰花园</t>
+  </si>
+  <si>
+    <t>1994年建/板塔结合</t>
+  </si>
+  <si>
+    <t>80.78平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101446535.html</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>63651元/平米</t>
+  </si>
+  <si>
+    <t>祥云天都世纪大厦</t>
+  </si>
+  <si>
+    <t>2007年建/塔楼</t>
+  </si>
+  <si>
+    <t>71.17平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101440327.html</t>
+  </si>
+  <si>
+    <t>70235元/平米</t>
+  </si>
+  <si>
+    <t>71.19平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101456021.html</t>
+  </si>
+  <si>
+    <t>58998元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101399312.html</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>59759元/平米</t>
+  </si>
+  <si>
+    <t>71.12平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101461523.html</t>
+  </si>
+  <si>
+    <t>56768元/平米</t>
+  </si>
+  <si>
+    <t>89.84平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101468774.html</t>
+  </si>
+  <si>
+    <t>51142元/平米</t>
+  </si>
+  <si>
+    <t>84.08平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100672342.html</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>56205元/平米</t>
+  </si>
+  <si>
+    <t>西北</t>
+  </si>
+  <si>
+    <t>91.63平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101382480.html</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>53976元/平米</t>
+  </si>
+  <si>
+    <t>79.48平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101401582.html</t>
+  </si>
+  <si>
+    <t>86.4平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101455506.html</t>
+  </si>
+  <si>
+    <t>59211元/平米</t>
+  </si>
+  <si>
+    <t>76平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101469144.html</t>
+  </si>
+  <si>
+    <t>55341元/平米</t>
+  </si>
+  <si>
+    <t>95.77平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101311569.html</t>
+  </si>
+  <si>
+    <t>59172元/平米</t>
+  </si>
+  <si>
+    <t>89.57平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101335187.html</t>
+  </si>
+  <si>
+    <t>57901元/平米</t>
+  </si>
+  <si>
+    <t>89.81平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101416377.html</t>
+  </si>
+  <si>
+    <t>57924元/平米</t>
+  </si>
+  <si>
+    <t>91.5平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101454716.html</t>
+  </si>
+  <si>
+    <t>54102元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100881476.html</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>55360元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101069602.html</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>54730元/平米</t>
+  </si>
+  <si>
+    <t>80.03平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101444104.html</t>
+  </si>
+  <si>
+    <t>53903元/平米</t>
+  </si>
+  <si>
+    <t>89.05平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101015665.html</t>
+  </si>
+  <si>
+    <t>58994元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101059823.html</t>
+  </si>
+  <si>
+    <t>55389元/平米</t>
+  </si>
+  <si>
+    <t>86.66平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100299726.html</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>54891元/平米</t>
+  </si>
+  <si>
+    <t>85.26平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101430498.html</t>
+  </si>
+  <si>
+    <t>56521元/平米</t>
+  </si>
+  <si>
+    <t>西南 东北</t>
+  </si>
+  <si>
+    <t>95.54平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101170777.html</t>
+  </si>
+  <si>
+    <t>57842元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101106451.html</t>
+  </si>
+  <si>
+    <t>52194元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101321207.html</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>57000元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101454020.html</t>
+  </si>
+  <si>
+    <t>57340元/平米</t>
+  </si>
+  <si>
+    <t>南溪新苑</t>
+  </si>
+  <si>
+    <t>78.48平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101383801.html</t>
+  </si>
+  <si>
+    <t>58410元/平米</t>
+  </si>
+  <si>
+    <t>东 西北</t>
+  </si>
+  <si>
+    <t>79.61平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101334297.html</t>
+  </si>
+  <si>
+    <t>57654元/平米</t>
+  </si>
+  <si>
+    <t>79.44平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101163052.html</t>
+  </si>
+  <si>
+    <t>81151元/平米</t>
+  </si>
+  <si>
+    <t>绿景中城天邑花园</t>
+  </si>
+  <si>
+    <t>54.22平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101387283.html</t>
+  </si>
+  <si>
+    <t>77316元/平米</t>
+  </si>
+  <si>
+    <t>2008年建/板楼</t>
+  </si>
+  <si>
+    <t>68.55平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101237761.html</t>
+  </si>
+  <si>
+    <t>狮岭小学</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>77498元/平米</t>
+  </si>
+  <si>
+    <t>擎天华庭</t>
+  </si>
+  <si>
+    <t>64.26平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101324792.html</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>76257元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101427445.html</t>
+  </si>
+  <si>
+    <t>77010元/平米</t>
+  </si>
+  <si>
+    <t>62.33平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101406381.html</t>
+  </si>
+  <si>
+    <t>76133元/平米</t>
+  </si>
+  <si>
+    <t>缔梦园</t>
+  </si>
+  <si>
+    <t>54.51平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101104821.html</t>
+  </si>
+  <si>
+    <t>78462元/平米</t>
+  </si>
+  <si>
+    <t>65平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100968855.html</t>
+  </si>
+  <si>
+    <t>46346元/平米</t>
+  </si>
+  <si>
+    <t>鲁班大厦</t>
+  </si>
+  <si>
+    <t>1998年建/塔楼</t>
+  </si>
+  <si>
+    <t>112.2平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101186865.html</t>
+  </si>
+  <si>
+    <t>51069元/平米</t>
+  </si>
+  <si>
+    <t>东 南</t>
+  </si>
+  <si>
+    <t>94.97平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101466470.html</t>
+  </si>
+  <si>
+    <t>47547元/平米</t>
+  </si>
+  <si>
+    <t>92.12平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101421593.html</t>
+  </si>
+  <si>
+    <t>49490元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101248245.html</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>57271元/平米</t>
+  </si>
+  <si>
+    <t>景发花园</t>
+  </si>
+  <si>
+    <t>82.94平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101387735.html</t>
+  </si>
+  <si>
+    <t>58259元/平米</t>
+  </si>
+  <si>
+    <t>92.69平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101265807.html</t>
+  </si>
+  <si>
+    <t>59631元/平米</t>
+  </si>
+  <si>
+    <t>83.85平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101365820.html</t>
+  </si>
+  <si>
+    <t>94626元/平米</t>
+  </si>
+  <si>
+    <t>TT国际公寓</t>
+  </si>
+  <si>
+    <t>52.84平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101482711.html</t>
+  </si>
+  <si>
+    <t>福华小学</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>64297元/平米</t>
+  </si>
+  <si>
+    <t>福华新村</t>
+  </si>
+  <si>
+    <t>1992年建/板塔结合</t>
+  </si>
+  <si>
+    <t>85.23平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101495329.html</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>65351元/平米</t>
+  </si>
+  <si>
+    <t>74.98平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101504341.html</t>
+  </si>
+  <si>
+    <t>65579元/平米</t>
+  </si>
+  <si>
+    <t>74.72平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101382635.html</t>
+  </si>
+  <si>
+    <t>60653元/平米</t>
+  </si>
+  <si>
+    <t>皇洲花园</t>
+  </si>
+  <si>
+    <t>1993年建/板塔结合</t>
+  </si>
+  <si>
+    <t>79.14平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101381447.html</t>
+  </si>
+  <si>
+    <t>61916元/平米</t>
+  </si>
+  <si>
+    <t>85.6平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101379194.html</t>
+  </si>
+  <si>
+    <t>49551元/平米</t>
+  </si>
+  <si>
+    <t>94.45平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101432239.html</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>51176元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101486944.html</t>
+  </si>
+  <si>
+    <t>43532元/平米</t>
+  </si>
+  <si>
+    <t>岗厦变电综合楼</t>
+  </si>
+  <si>
+    <t>98.78平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100815087.html</t>
+  </si>
+  <si>
+    <t>42519元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101132476.html</t>
+  </si>
+  <si>
+    <t>47569元/平米</t>
+  </si>
+  <si>
+    <t>福源大厦</t>
+  </si>
+  <si>
+    <t>93.55平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101430944.html</t>
+  </si>
+  <si>
+    <t>49777元/平米</t>
+  </si>
+  <si>
+    <t>4室2厅</t>
+  </si>
+  <si>
+    <t>100.45平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101387445.html</t>
+  </si>
+  <si>
+    <t>51270元/平米</t>
+  </si>
+  <si>
+    <t>东</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101446950.html</t>
+  </si>
+  <si>
+    <t>54534元/平米</t>
+  </si>
+  <si>
+    <t>93.52平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101463312.html</t>
+  </si>
+  <si>
+    <t>53341元/平米</t>
+  </si>
+  <si>
+    <t>78.74平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101459118.html</t>
+  </si>
+  <si>
+    <t>50257元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101095439.html</t>
+  </si>
+  <si>
+    <t>49291元/平米</t>
+  </si>
+  <si>
+    <t>东怡大厦</t>
+  </si>
+  <si>
+    <t>99.41平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101329774.html</t>
+  </si>
+  <si>
+    <t>50297元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101086354.html</t>
+  </si>
+  <si>
+    <t>48788元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101424708.html</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>68978元/平米</t>
+  </si>
+  <si>
+    <t>润恒大厦</t>
+  </si>
+  <si>
+    <t>2004年建/塔楼</t>
+  </si>
+  <si>
+    <t>57.99平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101509674.html</t>
+  </si>
+  <si>
+    <t>49363元/平米</t>
+  </si>
+  <si>
+    <t>华景花园</t>
+  </si>
+  <si>
+    <t>97.24平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101461447.html</t>
+  </si>
+  <si>
+    <t>52302元/平米</t>
+  </si>
+  <si>
+    <t>76.48平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101408126.html</t>
+  </si>
+  <si>
+    <t>52962元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101053446.html</t>
+  </si>
+  <si>
+    <t>51420元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101419118.html</t>
+  </si>
+  <si>
+    <t>53348元/平米</t>
+  </si>
+  <si>
+    <t>东华大厦</t>
+  </si>
+  <si>
+    <t>1996年建/塔楼</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101426942.html</t>
+  </si>
+  <si>
+    <t>56486元/平米</t>
+  </si>
+  <si>
+    <t>95.6平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101364294.html</t>
+  </si>
+  <si>
+    <t>梅林小学</t>
+  </si>
+  <si>
+    <t>47967元/平米</t>
+  </si>
+  <si>
+    <t>大众公寓</t>
+  </si>
+  <si>
+    <t>1995年建/板楼</t>
+  </si>
+  <si>
+    <t>100.07平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101398165.html</t>
+  </si>
+  <si>
+    <t>53902元/平米</t>
+  </si>
+  <si>
+    <t>福兴花园</t>
+  </si>
+  <si>
+    <t>81.63平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101242863.html</t>
+  </si>
+  <si>
+    <t>59907元/平米</t>
+  </si>
+  <si>
+    <t>79.29平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101492675.html</t>
+  </si>
+  <si>
+    <t>53430元/平米</t>
+  </si>
+  <si>
+    <t>新活力花园</t>
+  </si>
+  <si>
+    <t>91.71平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101405316.html</t>
+  </si>
+  <si>
+    <t>49052元/平米</t>
+  </si>
+  <si>
+    <t>91.74平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101475518.html</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>52264元/平米</t>
+  </si>
+  <si>
+    <t>润华苑</t>
+  </si>
+  <si>
+    <t>88.59平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100526687.html</t>
+  </si>
+  <si>
+    <t>52552元/平米</t>
+  </si>
+  <si>
+    <t>85.63平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100871427.html</t>
+  </si>
+  <si>
+    <t>52816元/平米</t>
+  </si>
+  <si>
+    <t>东南 东北</t>
+  </si>
+  <si>
+    <t>97.51平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100564498.html</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>55241元/平米</t>
+  </si>
+  <si>
+    <t>东 东南</t>
+  </si>
+  <si>
+    <t>86.53平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101481782.html</t>
+  </si>
+  <si>
+    <t>67675元/平米</t>
+  </si>
+  <si>
+    <t>嘉鑫阳光雅居</t>
+  </si>
+  <si>
+    <t>69.45平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101480584.html</t>
+  </si>
+  <si>
+    <t>58617元/平米</t>
+  </si>
+  <si>
+    <t>碧华庭居</t>
+  </si>
+  <si>
+    <t>2001年建/塔楼</t>
+  </si>
+  <si>
+    <t>85.3平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101312464.html</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>61417元/平米</t>
+  </si>
+  <si>
+    <t>2000年建/塔楼</t>
+  </si>
+  <si>
+    <t>85.97平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101432046.html</t>
+  </si>
+  <si>
+    <t>62194元/平米</t>
+  </si>
+  <si>
+    <t>83.61平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100890846.html</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>66000元/平米</t>
+  </si>
+  <si>
+    <t>76.97平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101230214.html</t>
+  </si>
+  <si>
+    <t>58160元/平米</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101482867.html</t>
+  </si>
+  <si>
+    <t>55217元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100552568.html</t>
+  </si>
+  <si>
+    <t>55753元/平米</t>
+  </si>
+  <si>
+    <t>合正园</t>
+  </si>
+  <si>
+    <t>81.61平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101486808.html</t>
+  </si>
+  <si>
+    <t>51655元/平米</t>
+  </si>
+  <si>
+    <t>81.31平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101412627.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101412621.html</t>
+  </si>
+  <si>
+    <t>59483元/平米</t>
+  </si>
+  <si>
+    <t>87.42平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101399402.html</t>
+  </si>
+  <si>
+    <t>55344元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100360775.html</t>
+  </si>
+  <si>
+    <t>59039元/平米</t>
+  </si>
+  <si>
+    <t>87.74平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101002741.html</t>
+  </si>
+  <si>
+    <t>62273元/平米</t>
+  </si>
+  <si>
+    <t>梅林二村</t>
+  </si>
+  <si>
+    <t>77.08平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101276129.html</t>
+  </si>
+  <si>
+    <t>64868元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100969118.html</t>
+  </si>
+  <si>
+    <t>67255元/平米</t>
+  </si>
+  <si>
+    <t>66.91平米平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101186275.html</t>
   </si>
 </sst>
 </file>
@@ -644,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,31 +2174,31 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -715,28 +2206,28 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -744,28 +2235,28 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -773,16 +2264,16 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -791,10 +2282,10 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -802,16 +2293,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -820,10 +2311,10 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -831,10 +2322,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
@@ -849,10 +2340,10 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -860,13 +2351,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -878,10 +2369,10 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -889,16 +2380,16 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -907,10 +2398,10 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -921,13 +2412,13 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -936,10 +2427,10 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -968,7 +2459,7 @@
         <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -976,16 +2467,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -994,10 +2485,10 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1005,16 +2496,16 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1023,10 +2514,10 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1034,16 +2525,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1052,10 +2543,10 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1063,16 +2554,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1081,10 +2572,10 @@
         <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1092,10 +2583,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1110,10 +2601,10 @@
         <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1121,10 +2612,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1139,10 +2630,10 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1150,10 +2641,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1168,10 +2659,10 @@
         <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1179,16 +2670,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -1197,39 +2688,4186 @@
         <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" t="s">
+        <v>133</v>
+      </c>
+      <c r="I33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" t="s">
+        <v>162</v>
+      </c>
+      <c r="I40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" t="s">
+        <v>162</v>
+      </c>
+      <c r="I41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H42" t="s">
+        <v>170</v>
+      </c>
+      <c r="I42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" t="s">
+        <v>178</v>
+      </c>
+      <c r="I44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" t="s">
+        <v>169</v>
+      </c>
+      <c r="H45" t="s">
+        <v>182</v>
+      </c>
+      <c r="I45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" t="s">
+        <v>169</v>
+      </c>
+      <c r="H47" t="s">
+        <v>188</v>
+      </c>
+      <c r="I47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H48" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" t="s">
+        <v>182</v>
+      </c>
+      <c r="I49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" t="s">
+        <v>196</v>
+      </c>
+      <c r="I50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" t="s">
+        <v>169</v>
+      </c>
+      <c r="H52" t="s">
+        <v>188</v>
+      </c>
+      <c r="I52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s">
+        <v>205</v>
+      </c>
+      <c r="G53" t="s">
+        <v>206</v>
+      </c>
+      <c r="H53" t="s">
+        <v>207</v>
+      </c>
+      <c r="I53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" t="s">
+        <v>206</v>
+      </c>
+      <c r="H54" t="s">
+        <v>210</v>
+      </c>
+      <c r="I54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>215</v>
+      </c>
+      <c r="G55" t="s">
+        <v>216</v>
+      </c>
+      <c r="H55" t="s">
+        <v>217</v>
+      </c>
+      <c r="I55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56" t="s">
+        <v>222</v>
+      </c>
+      <c r="I56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" t="s">
+        <v>220</v>
+      </c>
+      <c r="G57" t="s">
+        <v>226</v>
+      </c>
+      <c r="H57" t="s">
+        <v>227</v>
+      </c>
+      <c r="I57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G58" t="s">
+        <v>231</v>
+      </c>
+      <c r="H58" t="s">
+        <v>232</v>
+      </c>
+      <c r="I58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>234</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" t="s">
+        <v>231</v>
+      </c>
+      <c r="H59" t="s">
+        <v>235</v>
+      </c>
+      <c r="I59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" t="s">
+        <v>230</v>
+      </c>
+      <c r="G60" t="s">
+        <v>231</v>
+      </c>
+      <c r="H60" t="s">
+        <v>238</v>
+      </c>
+      <c r="I60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" t="s">
+        <v>230</v>
+      </c>
+      <c r="G61" t="s">
+        <v>231</v>
+      </c>
+      <c r="H61" t="s">
+        <v>241</v>
+      </c>
+      <c r="I61" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>244</v>
+      </c>
+      <c r="G62" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62" t="s">
+        <v>246</v>
+      </c>
+      <c r="I62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
+        <v>244</v>
+      </c>
+      <c r="G63" t="s">
+        <v>245</v>
+      </c>
+      <c r="H63" t="s">
+        <v>250</v>
+      </c>
+      <c r="I63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" t="s">
+        <v>244</v>
+      </c>
+      <c r="G64" t="s">
+        <v>245</v>
+      </c>
+      <c r="H64" t="s">
+        <v>253</v>
+      </c>
+      <c r="I64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" t="s">
+        <v>244</v>
+      </c>
+      <c r="G65" t="s">
+        <v>245</v>
+      </c>
+      <c r="H65" t="s">
+        <v>257</v>
+      </c>
+      <c r="I65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" t="s">
+        <v>244</v>
+      </c>
+      <c r="G66" t="s">
+        <v>245</v>
+      </c>
+      <c r="H66" t="s">
+        <v>261</v>
+      </c>
+      <c r="I66" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" t="s">
+        <v>244</v>
+      </c>
+      <c r="G67" t="s">
+        <v>245</v>
+      </c>
+      <c r="H67" t="s">
+        <v>264</v>
+      </c>
+      <c r="I67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" t="s">
+        <v>244</v>
+      </c>
+      <c r="G68" t="s">
+        <v>245</v>
+      </c>
+      <c r="H68" t="s">
+        <v>253</v>
+      </c>
+      <c r="I68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" t="s">
+        <v>244</v>
+      </c>
+      <c r="G69" t="s">
+        <v>245</v>
+      </c>
+      <c r="H69" t="s">
+        <v>269</v>
+      </c>
+      <c r="I69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>272</v>
+      </c>
+      <c r="G70" t="s">
+        <v>273</v>
+      </c>
+      <c r="H70" t="s">
+        <v>274</v>
+      </c>
+      <c r="I70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" t="s">
+        <v>59</v>
+      </c>
+      <c r="F71" t="s">
+        <v>278</v>
+      </c>
+      <c r="G71" t="s">
+        <v>279</v>
+      </c>
+      <c r="H71" t="s">
+        <v>280</v>
+      </c>
+      <c r="I71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" t="s">
+        <v>278</v>
+      </c>
+      <c r="G72" t="s">
+        <v>279</v>
+      </c>
+      <c r="H72" t="s">
+        <v>283</v>
+      </c>
+      <c r="I72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>278</v>
+      </c>
+      <c r="G73" t="s">
+        <v>279</v>
+      </c>
+      <c r="H73" t="s">
+        <v>283</v>
+      </c>
+      <c r="I73" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" t="s">
+        <v>288</v>
+      </c>
+      <c r="D74" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" t="s">
+        <v>59</v>
+      </c>
+      <c r="F74" t="s">
+        <v>278</v>
+      </c>
+      <c r="G74" t="s">
+        <v>279</v>
+      </c>
+      <c r="H74" t="s">
+        <v>289</v>
+      </c>
+      <c r="I74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" t="s">
+        <v>291</v>
+      </c>
+      <c r="D75" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" t="s">
+        <v>278</v>
+      </c>
+      <c r="G75" t="s">
+        <v>279</v>
+      </c>
+      <c r="H75" t="s">
+        <v>292</v>
+      </c>
+      <c r="I75" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>294</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" t="s">
+        <v>278</v>
+      </c>
+      <c r="G76" t="s">
+        <v>279</v>
+      </c>
+      <c r="H76" t="s">
+        <v>295</v>
+      </c>
+      <c r="I76" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>297</v>
+      </c>
+      <c r="C77" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" t="s">
+        <v>299</v>
+      </c>
+      <c r="F77" t="s">
+        <v>278</v>
+      </c>
+      <c r="G77" t="s">
+        <v>279</v>
+      </c>
+      <c r="H77" t="s">
+        <v>300</v>
+      </c>
+      <c r="I77" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>302</v>
+      </c>
+      <c r="C78" t="s">
+        <v>303</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" t="s">
+        <v>278</v>
+      </c>
+      <c r="G78" t="s">
+        <v>279</v>
+      </c>
+      <c r="H78" t="s">
+        <v>304</v>
+      </c>
+      <c r="I78" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" t="s">
+        <v>278</v>
+      </c>
+      <c r="G79" t="s">
+        <v>279</v>
+      </c>
+      <c r="H79" t="s">
+        <v>306</v>
+      </c>
+      <c r="I79" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" t="s">
+        <v>278</v>
+      </c>
+      <c r="G80" t="s">
+        <v>279</v>
+      </c>
+      <c r="H80" t="s">
+        <v>309</v>
+      </c>
+      <c r="I80" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>311</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s">
+        <v>278</v>
+      </c>
+      <c r="G81" t="s">
+        <v>279</v>
+      </c>
+      <c r="H81" t="s">
+        <v>312</v>
+      </c>
+      <c r="I81" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>314</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" t="s">
+        <v>278</v>
+      </c>
+      <c r="G82" t="s">
+        <v>279</v>
+      </c>
+      <c r="H82" t="s">
+        <v>315</v>
+      </c>
+      <c r="I82" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>317</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" t="s">
+        <v>59</v>
+      </c>
+      <c r="F83" t="s">
+        <v>278</v>
+      </c>
+      <c r="G83" t="s">
+        <v>279</v>
+      </c>
+      <c r="H83" t="s">
+        <v>318</v>
+      </c>
+      <c r="I83" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>320</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>278</v>
+      </c>
+      <c r="G84" t="s">
+        <v>279</v>
+      </c>
+      <c r="H84" t="s">
+        <v>321</v>
+      </c>
+      <c r="I84" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" t="s">
+        <v>278</v>
+      </c>
+      <c r="G85" t="s">
+        <v>279</v>
+      </c>
+      <c r="H85" t="s">
+        <v>304</v>
+      </c>
+      <c r="I85" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" t="s">
+        <v>278</v>
+      </c>
+      <c r="G86" t="s">
+        <v>279</v>
+      </c>
+      <c r="H86" t="s">
+        <v>304</v>
+      </c>
+      <c r="I86" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" t="s">
+        <v>328</v>
+      </c>
+      <c r="C87" t="s">
+        <v>329</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" t="s">
+        <v>278</v>
+      </c>
+      <c r="G87" t="s">
+        <v>279</v>
+      </c>
+      <c r="H87" t="s">
+        <v>330</v>
+      </c>
+      <c r="I87" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" t="s">
+        <v>332</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>278</v>
+      </c>
+      <c r="G88" t="s">
+        <v>279</v>
+      </c>
+      <c r="H88" t="s">
+        <v>333</v>
+      </c>
+      <c r="I88" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>335</v>
+      </c>
+      <c r="D89" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" t="s">
+        <v>278</v>
+      </c>
+      <c r="G89" t="s">
+        <v>279</v>
+      </c>
+      <c r="H89" t="s">
+        <v>292</v>
+      </c>
+      <c r="I89" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" t="s">
+        <v>337</v>
+      </c>
+      <c r="D90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" t="s">
+        <v>80</v>
+      </c>
+      <c r="F90" t="s">
+        <v>278</v>
+      </c>
+      <c r="G90" t="s">
+        <v>279</v>
+      </c>
+      <c r="H90" t="s">
+        <v>338</v>
+      </c>
+      <c r="I90" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" t="s">
+        <v>340</v>
+      </c>
+      <c r="C91" t="s">
+        <v>341</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" t="s">
+        <v>278</v>
+      </c>
+      <c r="G91" t="s">
+        <v>279</v>
+      </c>
+      <c r="H91" t="s">
+        <v>342</v>
+      </c>
+      <c r="I91" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>344</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" t="s">
+        <v>345</v>
+      </c>
+      <c r="F92" t="s">
+        <v>278</v>
+      </c>
+      <c r="G92" t="s">
+        <v>279</v>
+      </c>
+      <c r="H92" t="s">
+        <v>346</v>
+      </c>
+      <c r="I92" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>348</v>
+      </c>
+      <c r="D93" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" t="s">
+        <v>299</v>
+      </c>
+      <c r="F93" t="s">
+        <v>278</v>
+      </c>
+      <c r="G93" t="s">
+        <v>279</v>
+      </c>
+      <c r="H93" t="s">
+        <v>300</v>
+      </c>
+      <c r="I93" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>350</v>
+      </c>
+      <c r="D94" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" t="s">
+        <v>278</v>
+      </c>
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
+      <c r="H94" t="s">
+        <v>342</v>
+      </c>
+      <c r="I94" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" t="s">
+        <v>353</v>
+      </c>
+      <c r="D95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" t="s">
+        <v>278</v>
+      </c>
+      <c r="G95" t="s">
+        <v>279</v>
+      </c>
+      <c r="H95" t="s">
+        <v>87</v>
+      </c>
+      <c r="I95" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>355</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" t="s">
+        <v>356</v>
+      </c>
+      <c r="G96" t="s">
+        <v>231</v>
+      </c>
+      <c r="H96" t="s">
+        <v>357</v>
+      </c>
+      <c r="I96" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" t="s">
+        <v>359</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" t="s">
+        <v>356</v>
+      </c>
+      <c r="G97" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" t="s">
+        <v>361</v>
+      </c>
+      <c r="I97" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" t="s">
+        <v>363</v>
+      </c>
+      <c r="D98" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>356</v>
+      </c>
+      <c r="G98" t="s">
+        <v>231</v>
+      </c>
+      <c r="H98" t="s">
+        <v>364</v>
+      </c>
+      <c r="I98" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>325</v>
+      </c>
+      <c r="C99" t="s">
+        <v>366</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>367</v>
+      </c>
+      <c r="G99" t="s">
+        <v>102</v>
+      </c>
+      <c r="H99" t="s">
+        <v>368</v>
+      </c>
+      <c r="I99" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" t="s">
+        <v>370</v>
+      </c>
+      <c r="D100" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" t="s">
+        <v>367</v>
+      </c>
+      <c r="G100" t="s">
+        <v>371</v>
+      </c>
+      <c r="H100" t="s">
+        <v>372</v>
+      </c>
+      <c r="I100" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>374</v>
+      </c>
+      <c r="B101" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" t="s">
+        <v>376</v>
+      </c>
+      <c r="D101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" t="s">
+        <v>377</v>
+      </c>
+      <c r="G101" t="s">
+        <v>158</v>
+      </c>
+      <c r="H101" t="s">
+        <v>378</v>
+      </c>
+      <c r="I101" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>374</v>
+      </c>
+      <c r="B102" t="s">
+        <v>380</v>
+      </c>
+      <c r="C102" t="s">
+        <v>381</v>
+      </c>
+      <c r="D102" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" t="s">
+        <v>377</v>
+      </c>
+      <c r="G102" t="s">
+        <v>158</v>
+      </c>
+      <c r="H102" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>374</v>
+      </c>
+      <c r="B103" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" t="s">
+        <v>383</v>
+      </c>
+      <c r="D103" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" t="s">
+        <v>377</v>
+      </c>
+      <c r="G103" t="s">
+        <v>158</v>
+      </c>
+      <c r="H103" t="s">
+        <v>384</v>
+      </c>
+      <c r="I103" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>374</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s">
+        <v>386</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" t="s">
+        <v>387</v>
+      </c>
+      <c r="G104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104" t="s">
+        <v>388</v>
+      </c>
+      <c r="I104" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>374</v>
+      </c>
+      <c r="B105" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" t="s">
+        <v>390</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>84</v>
+      </c>
+      <c r="F105" t="s">
+        <v>387</v>
+      </c>
+      <c r="G105" t="s">
+        <v>109</v>
+      </c>
+      <c r="H105" t="s">
+        <v>391</v>
+      </c>
+      <c r="I105" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>374</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D106" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" t="s">
+        <v>394</v>
+      </c>
+      <c r="G106" t="s">
+        <v>395</v>
+      </c>
+      <c r="H106" t="s">
+        <v>396</v>
+      </c>
+      <c r="I106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>374</v>
+      </c>
+      <c r="B107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" t="s">
+        <v>398</v>
+      </c>
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" t="s">
+        <v>399</v>
+      </c>
+      <c r="F107" t="s">
+        <v>394</v>
+      </c>
+      <c r="G107" t="s">
+        <v>395</v>
+      </c>
+      <c r="H107" t="s">
+        <v>400</v>
+      </c>
+      <c r="I107" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>374</v>
+      </c>
+      <c r="B108" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" t="s">
+        <v>402</v>
+      </c>
+      <c r="D108" t="s">
+        <v>42</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" t="s">
+        <v>394</v>
+      </c>
+      <c r="G108" t="s">
+        <v>395</v>
+      </c>
+      <c r="H108" t="s">
+        <v>403</v>
+      </c>
+      <c r="I108" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>374</v>
+      </c>
+      <c r="B109" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" t="s">
+        <v>405</v>
+      </c>
+      <c r="D109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" t="s">
+        <v>394</v>
+      </c>
+      <c r="G109" t="s">
+        <v>395</v>
+      </c>
+      <c r="H109" t="s">
+        <v>400</v>
+      </c>
+      <c r="I109" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>374</v>
+      </c>
+      <c r="B110" t="s">
+        <v>407</v>
+      </c>
+      <c r="C110" t="s">
+        <v>408</v>
+      </c>
+      <c r="D110" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" t="s">
+        <v>409</v>
+      </c>
+      <c r="G110" t="s">
+        <v>245</v>
+      </c>
+      <c r="H110" t="s">
+        <v>410</v>
+      </c>
+      <c r="I110" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>374</v>
+      </c>
+      <c r="B111" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" t="s">
+        <v>412</v>
+      </c>
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" t="s">
+        <v>299</v>
+      </c>
+      <c r="F111" t="s">
+        <v>409</v>
+      </c>
+      <c r="G111" t="s">
+        <v>245</v>
+      </c>
+      <c r="H111" t="s">
+        <v>413</v>
+      </c>
+      <c r="I111" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>374</v>
+      </c>
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" t="s">
+        <v>415</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" t="s">
+        <v>409</v>
+      </c>
+      <c r="G112" t="s">
+        <v>245</v>
+      </c>
+      <c r="H112" t="s">
+        <v>416</v>
+      </c>
+      <c r="I112" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>374</v>
+      </c>
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" t="s">
+        <v>418</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" t="s">
+        <v>419</v>
+      </c>
+      <c r="G113" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" t="s">
+        <v>420</v>
+      </c>
+      <c r="I113" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>422</v>
+      </c>
+      <c r="B114" t="s">
+        <v>423</v>
+      </c>
+      <c r="C114" t="s">
+        <v>424</v>
+      </c>
+      <c r="D114" t="s">
+        <v>165</v>
+      </c>
+      <c r="E114" t="s">
+        <v>84</v>
+      </c>
+      <c r="F114" t="s">
+        <v>425</v>
+      </c>
+      <c r="G114" t="s">
+        <v>426</v>
+      </c>
+      <c r="H114" t="s">
+        <v>427</v>
+      </c>
+      <c r="I114" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>422</v>
+      </c>
+      <c r="B115" t="s">
+        <v>429</v>
+      </c>
+      <c r="C115" t="s">
+        <v>430</v>
+      </c>
+      <c r="D115" t="s">
+        <v>42</v>
+      </c>
+      <c r="E115" t="s">
+        <v>84</v>
+      </c>
+      <c r="F115" t="s">
+        <v>425</v>
+      </c>
+      <c r="G115" t="s">
+        <v>426</v>
+      </c>
+      <c r="H115" t="s">
+        <v>431</v>
+      </c>
+      <c r="I115" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>422</v>
+      </c>
+      <c r="B116" t="s">
+        <v>429</v>
+      </c>
+      <c r="C116" t="s">
+        <v>433</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>84</v>
+      </c>
+      <c r="F116" t="s">
+        <v>425</v>
+      </c>
+      <c r="G116" t="s">
+        <v>426</v>
+      </c>
+      <c r="H116" t="s">
+        <v>434</v>
+      </c>
+      <c r="I116" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>422</v>
+      </c>
+      <c r="B117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" t="s">
+        <v>436</v>
+      </c>
+      <c r="D117" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" t="s">
+        <v>437</v>
+      </c>
+      <c r="G117" t="s">
+        <v>438</v>
+      </c>
+      <c r="H117" t="s">
+        <v>439</v>
+      </c>
+      <c r="I117" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>422</v>
+      </c>
+      <c r="B118" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" t="s">
+        <v>441</v>
+      </c>
+      <c r="D118" t="s">
+        <v>165</v>
+      </c>
+      <c r="E118" t="s">
+        <v>84</v>
+      </c>
+      <c r="F118" t="s">
+        <v>437</v>
+      </c>
+      <c r="G118" t="s">
+        <v>438</v>
+      </c>
+      <c r="H118" t="s">
+        <v>442</v>
+      </c>
+      <c r="I118" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>422</v>
+      </c>
+      <c r="B119" t="s">
+        <v>340</v>
+      </c>
+      <c r="C119" t="s">
+        <v>444</v>
+      </c>
+      <c r="D119" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" t="s">
+        <v>437</v>
+      </c>
+      <c r="G119" t="s">
+        <v>438</v>
+      </c>
+      <c r="H119" t="s">
+        <v>445</v>
+      </c>
+      <c r="I119" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>422</v>
+      </c>
+      <c r="B120" t="s">
+        <v>447</v>
+      </c>
+      <c r="C120" t="s">
+        <v>448</v>
+      </c>
+      <c r="D120" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" t="s">
+        <v>437</v>
+      </c>
+      <c r="G120" t="s">
+        <v>438</v>
+      </c>
+      <c r="H120" t="s">
+        <v>439</v>
+      </c>
+      <c r="I120" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>422</v>
+      </c>
+      <c r="B121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" t="s">
+        <v>450</v>
+      </c>
+      <c r="D121" t="s">
+        <v>165</v>
+      </c>
+      <c r="E121" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" t="s">
+        <v>451</v>
+      </c>
+      <c r="G121" t="s">
+        <v>273</v>
+      </c>
+      <c r="H121" t="s">
+        <v>452</v>
+      </c>
+      <c r="I121" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>422</v>
+      </c>
+      <c r="B122" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" t="s">
+        <v>454</v>
+      </c>
+      <c r="D122" t="s">
+        <v>32</v>
+      </c>
+      <c r="E122" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" t="s">
+        <v>451</v>
+      </c>
+      <c r="G122" t="s">
+        <v>119</v>
+      </c>
+      <c r="H122" t="s">
+        <v>452</v>
+      </c>
+      <c r="I122" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>422</v>
+      </c>
+      <c r="B123" t="s">
+        <v>190</v>
+      </c>
+      <c r="C123" t="s">
+        <v>456</v>
+      </c>
+      <c r="D123" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>457</v>
+      </c>
+      <c r="G123" t="s">
+        <v>148</v>
+      </c>
+      <c r="H123" t="s">
+        <v>458</v>
+      </c>
+      <c r="I123" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>422</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" t="s">
+        <v>460</v>
+      </c>
+      <c r="D124" t="s">
+        <v>461</v>
+      </c>
+      <c r="E124" t="s">
+        <v>80</v>
+      </c>
+      <c r="F124" t="s">
+        <v>457</v>
+      </c>
+      <c r="G124" t="s">
+        <v>148</v>
+      </c>
+      <c r="H124" t="s">
+        <v>462</v>
+      </c>
+      <c r="I124" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>422</v>
+      </c>
+      <c r="B125" t="s">
+        <v>297</v>
+      </c>
+      <c r="C125" t="s">
+        <v>464</v>
+      </c>
+      <c r="D125" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" t="s">
+        <v>465</v>
+      </c>
+      <c r="F125" t="s">
+        <v>457</v>
+      </c>
+      <c r="G125" t="s">
+        <v>148</v>
+      </c>
+      <c r="H125" t="s">
+        <v>462</v>
+      </c>
+      <c r="I125" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>422</v>
+      </c>
+      <c r="B126" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" t="s">
+        <v>467</v>
+      </c>
+      <c r="D126" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" t="s">
+        <v>457</v>
+      </c>
+      <c r="G126" t="s">
+        <v>148</v>
+      </c>
+      <c r="H126" t="s">
+        <v>468</v>
+      </c>
+      <c r="I126" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>422</v>
+      </c>
+      <c r="B127" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" t="s">
+        <v>470</v>
+      </c>
+      <c r="D127" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" t="s">
+        <v>457</v>
+      </c>
+      <c r="G127" t="s">
+        <v>148</v>
+      </c>
+      <c r="H127" t="s">
+        <v>471</v>
+      </c>
+      <c r="I127" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>422</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>473</v>
+      </c>
+      <c r="D128" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" t="s">
+        <v>80</v>
+      </c>
+      <c r="F128" t="s">
+        <v>457</v>
+      </c>
+      <c r="G128" t="s">
+        <v>148</v>
+      </c>
+      <c r="H128" t="s">
+        <v>468</v>
+      </c>
+      <c r="I128" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>422</v>
+      </c>
+      <c r="B129" t="s">
+        <v>429</v>
+      </c>
+      <c r="C129" t="s">
+        <v>475</v>
+      </c>
+      <c r="D129" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" t="s">
+        <v>476</v>
+      </c>
+      <c r="G129" t="s">
+        <v>273</v>
+      </c>
+      <c r="H129" t="s">
+        <v>477</v>
+      </c>
+      <c r="I129" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>422</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" t="s">
+        <v>479</v>
+      </c>
+      <c r="D130" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" t="s">
+        <v>59</v>
+      </c>
+      <c r="F130" t="s">
+        <v>476</v>
+      </c>
+      <c r="G130" t="s">
+        <v>273</v>
+      </c>
+      <c r="H130" t="s">
+        <v>477</v>
+      </c>
+      <c r="I130" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>422</v>
+      </c>
+      <c r="B131" t="s">
+        <v>201</v>
+      </c>
+      <c r="C131" t="s">
+        <v>481</v>
+      </c>
+      <c r="D131" t="s">
+        <v>165</v>
+      </c>
+      <c r="E131" t="s">
+        <v>299</v>
+      </c>
+      <c r="F131" t="s">
+        <v>476</v>
+      </c>
+      <c r="G131" t="s">
+        <v>273</v>
+      </c>
+      <c r="H131" t="s">
+        <v>477</v>
+      </c>
+      <c r="I131" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>422</v>
+      </c>
+      <c r="B132" t="s">
+        <v>483</v>
+      </c>
+      <c r="C132" t="s">
+        <v>484</v>
+      </c>
+      <c r="D132" t="s">
+        <v>42</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>485</v>
+      </c>
+      <c r="G132" t="s">
+        <v>486</v>
+      </c>
+      <c r="H132" t="s">
+        <v>487</v>
+      </c>
+      <c r="I132" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>422</v>
+      </c>
+      <c r="B133" t="s">
+        <v>99</v>
+      </c>
+      <c r="C133" t="s">
+        <v>489</v>
+      </c>
+      <c r="D133" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" t="s">
+        <v>299</v>
+      </c>
+      <c r="F133" t="s">
+        <v>490</v>
+      </c>
+      <c r="G133" t="s">
+        <v>273</v>
+      </c>
+      <c r="H133" t="s">
+        <v>491</v>
+      </c>
+      <c r="I133" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>422</v>
+      </c>
+      <c r="B134" t="s">
+        <v>483</v>
+      </c>
+      <c r="C134" t="s">
+        <v>493</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>80</v>
+      </c>
+      <c r="F134" t="s">
+        <v>490</v>
+      </c>
+      <c r="G134" t="s">
+        <v>273</v>
+      </c>
+      <c r="H134" t="s">
+        <v>494</v>
+      </c>
+      <c r="I134" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>422</v>
+      </c>
+      <c r="B135" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" t="s">
+        <v>496</v>
+      </c>
+      <c r="D135" t="s">
+        <v>32</v>
+      </c>
+      <c r="E135" t="s">
+        <v>59</v>
+      </c>
+      <c r="F135" t="s">
+        <v>490</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" t="s">
+        <v>491</v>
+      </c>
+      <c r="I135" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>422</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" t="s">
+        <v>498</v>
+      </c>
+      <c r="D136" t="s">
+        <v>165</v>
+      </c>
+      <c r="E136" t="s">
+        <v>37</v>
+      </c>
+      <c r="F136" t="s">
+        <v>490</v>
+      </c>
+      <c r="G136" t="s">
+        <v>273</v>
+      </c>
+      <c r="H136" t="s">
+        <v>491</v>
+      </c>
+      <c r="I136" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>422</v>
+      </c>
+      <c r="B137" t="s">
+        <v>483</v>
+      </c>
+      <c r="C137" t="s">
+        <v>500</v>
+      </c>
+      <c r="D137" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" t="s">
+        <v>80</v>
+      </c>
+      <c r="F137" t="s">
+        <v>501</v>
+      </c>
+      <c r="G137" t="s">
+        <v>502</v>
+      </c>
+      <c r="H137" t="s">
+        <v>431</v>
+      </c>
+      <c r="I137" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>422</v>
+      </c>
+      <c r="B138" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" t="s">
+        <v>504</v>
+      </c>
+      <c r="D138" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" t="s">
+        <v>80</v>
+      </c>
+      <c r="F138" t="s">
+        <v>501</v>
+      </c>
+      <c r="G138" t="s">
+        <v>502</v>
+      </c>
+      <c r="H138" t="s">
+        <v>505</v>
+      </c>
+      <c r="I138" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>507</v>
+      </c>
+      <c r="B139" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" t="s">
+        <v>508</v>
+      </c>
+      <c r="D139" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" t="s">
+        <v>84</v>
+      </c>
+      <c r="F139" t="s">
+        <v>509</v>
+      </c>
+      <c r="G139" t="s">
+        <v>510</v>
+      </c>
+      <c r="H139" t="s">
+        <v>511</v>
+      </c>
+      <c r="I139" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>507</v>
+      </c>
+      <c r="B140" t="s">
+        <v>325</v>
+      </c>
+      <c r="C140" t="s">
+        <v>513</v>
+      </c>
+      <c r="D140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E140" t="s">
+        <v>80</v>
+      </c>
+      <c r="F140" t="s">
+        <v>514</v>
+      </c>
+      <c r="G140" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140" t="s">
+        <v>515</v>
+      </c>
+      <c r="I140" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>507</v>
+      </c>
+      <c r="B141" t="s">
+        <v>407</v>
+      </c>
+      <c r="C141" t="s">
+        <v>517</v>
+      </c>
+      <c r="D141" t="s">
+        <v>42</v>
+      </c>
+      <c r="E141" t="s">
+        <v>80</v>
+      </c>
+      <c r="F141" t="s">
+        <v>514</v>
+      </c>
+      <c r="G141" t="s">
+        <v>23</v>
+      </c>
+      <c r="H141" t="s">
+        <v>518</v>
+      </c>
+      <c r="I141" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>507</v>
+      </c>
+      <c r="B142" t="s">
+        <v>429</v>
+      </c>
+      <c r="C142" t="s">
+        <v>520</v>
+      </c>
+      <c r="D142" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" t="s">
+        <v>465</v>
+      </c>
+      <c r="F142" t="s">
+        <v>521</v>
+      </c>
+      <c r="G142" t="s">
+        <v>109</v>
+      </c>
+      <c r="H142" t="s">
+        <v>522</v>
+      </c>
+      <c r="I142" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>507</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" t="s">
+        <v>524</v>
+      </c>
+      <c r="D143" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" t="s">
+        <v>465</v>
+      </c>
+      <c r="F143" t="s">
+        <v>521</v>
+      </c>
+      <c r="G143" t="s">
+        <v>109</v>
+      </c>
+      <c r="H143" t="s">
+        <v>525</v>
+      </c>
+      <c r="I143" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>507</v>
+      </c>
+      <c r="B144" t="s">
+        <v>527</v>
+      </c>
+      <c r="C144" t="s">
+        <v>528</v>
+      </c>
+      <c r="D144" t="s">
+        <v>32</v>
+      </c>
+      <c r="E144" t="s">
+        <v>59</v>
+      </c>
+      <c r="F144" t="s">
+        <v>529</v>
+      </c>
+      <c r="G144" t="s">
+        <v>158</v>
+      </c>
+      <c r="H144" t="s">
+        <v>530</v>
+      </c>
+      <c r="I144" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>507</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" t="s">
+        <v>532</v>
+      </c>
+      <c r="D145" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" t="s">
+        <v>465</v>
+      </c>
+      <c r="F145" t="s">
+        <v>529</v>
+      </c>
+      <c r="G145" t="s">
+        <v>158</v>
+      </c>
+      <c r="H145" t="s">
+        <v>533</v>
+      </c>
+      <c r="I145" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>507</v>
+      </c>
+      <c r="B146" t="s">
+        <v>297</v>
+      </c>
+      <c r="C146" t="s">
+        <v>535</v>
+      </c>
+      <c r="D146" t="s">
+        <v>32</v>
+      </c>
+      <c r="E146" t="s">
+        <v>536</v>
+      </c>
+      <c r="F146" t="s">
+        <v>529</v>
+      </c>
+      <c r="G146" t="s">
+        <v>158</v>
+      </c>
+      <c r="H146" t="s">
+        <v>537</v>
+      </c>
+      <c r="I146" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>507</v>
+      </c>
+      <c r="B147" t="s">
+        <v>539</v>
+      </c>
+      <c r="C147" t="s">
+        <v>540</v>
+      </c>
+      <c r="D147" t="s">
+        <v>165</v>
+      </c>
+      <c r="E147" t="s">
+        <v>541</v>
+      </c>
+      <c r="F147" t="s">
+        <v>529</v>
+      </c>
+      <c r="G147" t="s">
+        <v>158</v>
+      </c>
+      <c r="H147" t="s">
+        <v>542</v>
+      </c>
+      <c r="I147" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>507</v>
+      </c>
+      <c r="B148" t="s">
+        <v>126</v>
+      </c>
+      <c r="C148" t="s">
+        <v>544</v>
+      </c>
+      <c r="D148" t="s">
+        <v>42</v>
+      </c>
+      <c r="E148" t="s">
+        <v>299</v>
+      </c>
+      <c r="F148" t="s">
+        <v>545</v>
+      </c>
+      <c r="G148" t="s">
+        <v>102</v>
+      </c>
+      <c r="H148" t="s">
+        <v>546</v>
+      </c>
+      <c r="I148" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>507</v>
+      </c>
+      <c r="B149" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" t="s">
+        <v>548</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>549</v>
+      </c>
+      <c r="G149" t="s">
+        <v>550</v>
+      </c>
+      <c r="H149" t="s">
+        <v>551</v>
+      </c>
+      <c r="I149" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>507</v>
+      </c>
+      <c r="B150" t="s">
+        <v>553</v>
+      </c>
+      <c r="C150" t="s">
+        <v>554</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>299</v>
+      </c>
+      <c r="F150" t="s">
+        <v>549</v>
+      </c>
+      <c r="G150" t="s">
+        <v>555</v>
+      </c>
+      <c r="H150" t="s">
+        <v>556</v>
+      </c>
+      <c r="I150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>507</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" t="s">
+        <v>558</v>
+      </c>
+      <c r="D151" t="s">
+        <v>42</v>
+      </c>
+      <c r="E151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" t="s">
+        <v>549</v>
+      </c>
+      <c r="G151" t="s">
+        <v>555</v>
+      </c>
+      <c r="H151" t="s">
+        <v>559</v>
+      </c>
+      <c r="I151" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>507</v>
+      </c>
+      <c r="B152" t="s">
+        <v>561</v>
+      </c>
+      <c r="C152" t="s">
+        <v>562</v>
+      </c>
+      <c r="D152" t="s">
+        <v>42</v>
+      </c>
+      <c r="E152" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152" t="s">
+        <v>549</v>
+      </c>
+      <c r="G152" t="s">
+        <v>555</v>
+      </c>
+      <c r="H152" t="s">
+        <v>563</v>
+      </c>
+      <c r="I152" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>507</v>
+      </c>
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" t="s">
+        <v>565</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>566</v>
+      </c>
+      <c r="F153" t="s">
+        <v>549</v>
+      </c>
+      <c r="G153" t="s">
+        <v>550</v>
+      </c>
+      <c r="H153" t="s">
+        <v>556</v>
+      </c>
+      <c r="I153" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>507</v>
+      </c>
+      <c r="B154" t="s">
+        <v>287</v>
+      </c>
+      <c r="C154" t="s">
+        <v>568</v>
+      </c>
+      <c r="D154" t="s">
+        <v>42</v>
+      </c>
+      <c r="E154" t="s">
+        <v>21</v>
+      </c>
+      <c r="F154" t="s">
+        <v>549</v>
+      </c>
+      <c r="G154" t="s">
+        <v>555</v>
+      </c>
+      <c r="H154" t="s">
+        <v>563</v>
+      </c>
+      <c r="I154" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>507</v>
+      </c>
+      <c r="B155" t="s">
+        <v>75</v>
+      </c>
+      <c r="C155" t="s">
+        <v>570</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>21</v>
+      </c>
+      <c r="F155" t="s">
+        <v>571</v>
+      </c>
+      <c r="G155" t="s">
+        <v>109</v>
+      </c>
+      <c r="H155" t="s">
+        <v>572</v>
+      </c>
+      <c r="I155" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>507</v>
+      </c>
+      <c r="B156" t="s">
+        <v>82</v>
+      </c>
+      <c r="C156" t="s">
+        <v>574</v>
+      </c>
+      <c r="D156" t="s">
+        <v>42</v>
+      </c>
+      <c r="E156" t="s">
+        <v>21</v>
+      </c>
+      <c r="F156" t="s">
+        <v>571</v>
+      </c>
+      <c r="G156" t="s">
+        <v>109</v>
+      </c>
+      <c r="H156" t="s">
+        <v>575</v>
+      </c>
+      <c r="I156" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>507</v>
+      </c>
+      <c r="B157" t="s">
+        <v>82</v>
+      </c>
+      <c r="C157" t="s">
+        <v>574</v>
+      </c>
+      <c r="D157" t="s">
+        <v>42</v>
+      </c>
+      <c r="E157" t="s">
+        <v>21</v>
+      </c>
+      <c r="F157" t="s">
+        <v>571</v>
+      </c>
+      <c r="G157" t="s">
+        <v>109</v>
+      </c>
+      <c r="H157" t="s">
+        <v>575</v>
+      </c>
+      <c r="I157" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>507</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>578</v>
+      </c>
+      <c r="D158" t="s">
+        <v>32</v>
+      </c>
+      <c r="E158" t="s">
+        <v>37</v>
+      </c>
+      <c r="F158" t="s">
+        <v>571</v>
+      </c>
+      <c r="G158" t="s">
+        <v>109</v>
+      </c>
+      <c r="H158" t="s">
+        <v>579</v>
+      </c>
+      <c r="I158" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>507</v>
+      </c>
+      <c r="B159" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" t="s">
+        <v>581</v>
+      </c>
+      <c r="D159" t="s">
+        <v>42</v>
+      </c>
+      <c r="E159" t="s">
+        <v>21</v>
+      </c>
+      <c r="F159" t="s">
+        <v>571</v>
+      </c>
+      <c r="G159" t="s">
+        <v>109</v>
+      </c>
+      <c r="H159" t="s">
+        <v>575</v>
+      </c>
+      <c r="I159" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>507</v>
+      </c>
+      <c r="B160" t="s">
+        <v>175</v>
+      </c>
+      <c r="C160" t="s">
+        <v>583</v>
+      </c>
+      <c r="D160" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>571</v>
+      </c>
+      <c r="G160" t="s">
+        <v>245</v>
+      </c>
+      <c r="H160" t="s">
+        <v>584</v>
+      </c>
+      <c r="I160" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>507</v>
+      </c>
+      <c r="B161" t="s">
+        <v>99</v>
+      </c>
+      <c r="C161" t="s">
+        <v>586</v>
+      </c>
+      <c r="D161" t="s">
+        <v>42</v>
+      </c>
+      <c r="E161" t="s">
+        <v>84</v>
+      </c>
+      <c r="F161" t="s">
+        <v>587</v>
+      </c>
+      <c r="G161" t="s">
+        <v>426</v>
+      </c>
+      <c r="H161" t="s">
+        <v>588</v>
+      </c>
+      <c r="I161" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>507</v>
+      </c>
+      <c r="B162" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162" t="s">
+        <v>590</v>
+      </c>
+      <c r="D162" t="s">
+        <v>165</v>
+      </c>
+      <c r="E162" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" t="s">
+        <v>587</v>
+      </c>
+      <c r="G162" t="s">
+        <v>119</v>
+      </c>
+      <c r="H162" t="s">
+        <v>588</v>
+      </c>
+      <c r="I162" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>507</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" t="s">
+        <v>592</v>
+      </c>
+      <c r="D163" t="s">
+        <v>42</v>
+      </c>
+      <c r="E163" t="s">
+        <v>21</v>
+      </c>
+      <c r="F163" t="s">
+        <v>587</v>
+      </c>
+      <c r="G163" t="s">
+        <v>438</v>
+      </c>
+      <c r="H163" t="s">
+        <v>593</v>
+      </c>
+      <c r="I163" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/futian.xlsx
+++ b/futian.xlsx
@@ -15,33 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
-  <si>
-    <t>schoolName</t>
-  </si>
-  <si>
-    <t>total（万）</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>url</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1176">
+  <si>
+    <t>学校名称</t>
+  </si>
+  <si>
+    <t>总价(万)</t>
+  </si>
+  <si>
+    <t>单价(每平米)</t>
+  </si>
+  <si>
+    <t>户型</t>
+  </si>
+  <si>
+    <t>朝向</t>
+  </si>
+  <si>
+    <t>小区</t>
+  </si>
+  <si>
+    <t>房龄</t>
+  </si>
+  <si>
+    <t>大小（平方米）</t>
+  </si>
+  <si>
+    <t>地址连接</t>
   </si>
   <si>
     <t>莲花小学</t>
@@ -65,7 +65,7 @@
     <t>1995年建/板塔结合</t>
   </si>
   <si>
-    <t>77.62平米平米</t>
+    <t>77.62平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101485940.html</t>
@@ -89,7 +89,7 @@
     <t>2005年建/板塔结合</t>
   </si>
   <si>
-    <t>66.83平米平米</t>
+    <t>66.83平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101434521.html</t>
@@ -101,7 +101,7 @@
     <t>68078元/平米</t>
   </si>
   <si>
-    <t>60.96平米平米</t>
+    <t>60.96平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101344088.html</t>
@@ -116,7 +116,7 @@
     <t>3室2厅</t>
   </si>
   <si>
-    <t>70.42平米平米</t>
+    <t>70.42平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101301012.html</t>
@@ -131,7 +131,7 @@
     <t>东北</t>
   </si>
   <si>
-    <t>61.25平米平米</t>
+    <t>61.25平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101424903.html</t>
@@ -146,7 +146,7 @@
     <t>2室2厅</t>
   </si>
   <si>
-    <t>59.9平米平米</t>
+    <t>59.9平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101295826.html</t>
@@ -164,7 +164,7 @@
     <t>72488元/平米</t>
   </si>
   <si>
-    <t>62.08平米平米</t>
+    <t>62.08平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101426754.html</t>
@@ -179,7 +179,7 @@
     <t>70504元/平米</t>
   </si>
   <si>
-    <t>60.99平米平米</t>
+    <t>60.99平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101450281.html</t>
@@ -203,7 +203,7 @@
     <t>76130元/平米</t>
   </si>
   <si>
-    <t>59.11平米平米</t>
+    <t>59.11平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101235634.html</t>
@@ -215,7 +215,7 @@
     <t>77527元/平米</t>
   </si>
   <si>
-    <t>56.11平米平米</t>
+    <t>56.11平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101474029.html</t>
@@ -224,7 +224,7 @@
     <t>67812元/平米</t>
   </si>
   <si>
-    <t>66.36平米平米</t>
+    <t>66.36平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101087532.html</t>
@@ -236,7 +236,7 @@
     <t>70445元/平米</t>
   </si>
   <si>
-    <t>65.3平米平米</t>
+    <t>65.3平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101284900.html</t>
@@ -248,7 +248,7 @@
     <t>75108元/平米</t>
   </si>
   <si>
-    <t>60.58平米平米</t>
+    <t>60.58平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101324609.html</t>
@@ -278,7 +278,7 @@
     <t>1998年建/板楼</t>
   </si>
   <si>
-    <t>80平米平米</t>
+    <t>80平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100484153.html</t>
@@ -290,7 +290,7 @@
     <t>54640元/平米</t>
   </si>
   <si>
-    <t>97平米平米</t>
+    <t>97平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101188890.html</t>
@@ -305,7 +305,7 @@
     <t>1997年建/板楼</t>
   </si>
   <si>
-    <t>97.2平米平米</t>
+    <t>97.2平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101159403.html</t>
@@ -326,7 +326,7 @@
     <t>2008年建/板塔结合</t>
   </si>
   <si>
-    <t>61.97平米平米</t>
+    <t>61.97平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101418502.html</t>
@@ -347,7 +347,7 @@
     <t>1999年建/板塔结合</t>
   </si>
   <si>
-    <t>90.04平米平米</t>
+    <t>90.04平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101322839.html</t>
@@ -362,7 +362,7 @@
     <t>59987元/平米</t>
   </si>
   <si>
-    <t>90.02平米平米</t>
+    <t>90.02平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101202034.html</t>
@@ -377,7 +377,7 @@
     <t>1997年建/板塔结合</t>
   </si>
   <si>
-    <t>94.5平米平米</t>
+    <t>94.5平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101432610.html</t>
@@ -389,7 +389,7 @@
     <t>安通花园</t>
   </si>
   <si>
-    <t>74.39平米平米</t>
+    <t>74.39平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101508664.html</t>
@@ -407,7 +407,7 @@
     <t>2007年建/板塔结合</t>
   </si>
   <si>
-    <t>66.64平米平米</t>
+    <t>66.64平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101297820.html</t>
@@ -416,7 +416,7 @@
     <t>74997元/平米</t>
   </si>
   <si>
-    <t>66.67平米平米</t>
+    <t>66.67平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101210592.html</t>
@@ -437,7 +437,7 @@
     <t>77946元/平米</t>
   </si>
   <si>
-    <t>65.43平米平米</t>
+    <t>65.43平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101408585.html</t>
@@ -446,7 +446,7 @@
     <t>75561元/平米</t>
   </si>
   <si>
-    <t>65.51平米平米</t>
+    <t>65.51平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101364350.html</t>
@@ -464,7 +464,7 @@
     <t>1996年建/板塔结合</t>
   </si>
   <si>
-    <t>80.64平米平米</t>
+    <t>80.64平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100555606.html</t>
@@ -476,7 +476,7 @@
     <t>56356元/平米</t>
   </si>
   <si>
-    <t>81.27平米平米</t>
+    <t>81.27平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101375449.html</t>
@@ -494,7 +494,7 @@
     <t>2003年建/板塔结合</t>
   </si>
   <si>
-    <t>80.4平米平米</t>
+    <t>80.4平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101383934.html</t>
@@ -503,7 +503,7 @@
     <t>61700元/平米</t>
   </si>
   <si>
-    <t>85.9平米平米</t>
+    <t>85.9平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101403843.html</t>
@@ -527,7 +527,7 @@
     <t>2001年建/板塔结合</t>
   </si>
   <si>
-    <t>76.89平米平米</t>
+    <t>76.89平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101470867.html</t>
@@ -536,7 +536,7 @@
     <t>52146元/平米</t>
   </si>
   <si>
-    <t>83.42平米平米</t>
+    <t>83.42平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101343290.html</t>
@@ -551,7 +551,7 @@
     <t>1998年建/板塔结合</t>
   </si>
   <si>
-    <t>80.99平米平米</t>
+    <t>80.99平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101461852.html</t>
@@ -563,7 +563,7 @@
     <t>53056元/平米</t>
   </si>
   <si>
-    <t>80.67平米平米</t>
+    <t>80.67平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101256260.html</t>
@@ -572,7 +572,7 @@
     <t>54736元/平米</t>
   </si>
   <si>
-    <t>96.83平米平米</t>
+    <t>96.83平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101091075.html</t>
@@ -581,7 +581,7 @@
     <t>61248元/平米</t>
   </si>
   <si>
-    <t>80.82平米平米</t>
+    <t>80.82平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101398073.html</t>
@@ -605,7 +605,7 @@
     <t>56027元/平米</t>
   </si>
   <si>
-    <t>76.75平米平米</t>
+    <t>76.75平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101456017.html</t>
@@ -614,7 +614,7 @@
     <t>63617元/平米</t>
   </si>
   <si>
-    <t>81.74平米平米</t>
+    <t>81.74平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101454822.html</t>
@@ -638,7 +638,7 @@
     <t>2004年建/板塔结合</t>
   </si>
   <si>
-    <t>74.86平米平米</t>
+    <t>74.86平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101466953.html</t>
@@ -647,7 +647,7 @@
     <t>64163元/平米</t>
   </si>
   <si>
-    <t>74.81平米平米</t>
+    <t>74.81平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101163106.html</t>
@@ -668,7 +668,7 @@
     <t>未知年建/暂无数据</t>
   </si>
   <si>
-    <t>98.96平米平米</t>
+    <t>98.96平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101149594.html</t>
@@ -683,7 +683,7 @@
     <t>2002年建/塔楼</t>
   </si>
   <si>
-    <t>86.12平米平米</t>
+    <t>86.12平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101245849.html</t>
@@ -698,7 +698,7 @@
     <t>2002年建/板楼</t>
   </si>
   <si>
-    <t>85.88平米平米</t>
+    <t>85.88平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100924082.html</t>
@@ -713,7 +713,7 @@
     <t>2006年建/板塔结合</t>
   </si>
   <si>
-    <t>66.34平米平米</t>
+    <t>66.34平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101294059.html</t>
@@ -722,7 +722,7 @@
     <t>67712元/平米</t>
   </si>
   <si>
-    <t>65.72平米平米</t>
+    <t>65.72平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101237176.html</t>
@@ -731,7 +731,7 @@
     <t>69125元/平米</t>
   </si>
   <si>
-    <t>65.1平米平米</t>
+    <t>65.1平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101323535.html</t>
@@ -740,7 +740,7 @@
     <t>68431元/平米</t>
   </si>
   <si>
-    <t>65.76平米平米</t>
+    <t>65.76平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101174086.html</t>
@@ -755,7 +755,7 @@
     <t>2000年建/板塔结合</t>
   </si>
   <si>
-    <t>102.19平米平米</t>
+    <t>102.19平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101488043.html</t>
@@ -767,7 +767,7 @@
     <t>59923元/平米</t>
   </si>
   <si>
-    <t>77.6平米平米</t>
+    <t>77.6平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101470749.html</t>
@@ -776,7 +776,7 @@
     <t>55326元/平米</t>
   </si>
   <si>
-    <t>86.76平米平米</t>
+    <t>86.76平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101216724.html</t>
@@ -788,7 +788,7 @@
     <t>53401元/平米</t>
   </si>
   <si>
-    <t>95.88平米平米</t>
+    <t>95.88平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100974772.html</t>
@@ -800,7 +800,7 @@
     <t>西北 东北</t>
   </si>
   <si>
-    <t>76.78平米平米</t>
+    <t>76.78平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101255767.html</t>
@@ -809,7 +809,7 @@
     <t>57444元/平米</t>
   </si>
   <si>
-    <t>83.56平米平米</t>
+    <t>83.56平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100532755.html</t>
@@ -824,7 +824,7 @@
     <t>58413元/平米</t>
   </si>
   <si>
-    <t>87.31平米平米</t>
+    <t>87.31平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101428222.html</t>
@@ -839,7 +839,7 @@
     <t>1994年建/板塔结合</t>
   </si>
   <si>
-    <t>80.78平米平米</t>
+    <t>80.78平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101446535.html</t>
@@ -857,7 +857,7 @@
     <t>2007年建/塔楼</t>
   </si>
   <si>
-    <t>71.17平米平米</t>
+    <t>71.17平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101440327.html</t>
@@ -866,7 +866,7 @@
     <t>70235元/平米</t>
   </si>
   <si>
-    <t>71.19平米平米</t>
+    <t>71.19平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101456021.html</t>
@@ -884,7 +884,7 @@
     <t>59759元/平米</t>
   </si>
   <si>
-    <t>71.12平米平米</t>
+    <t>71.12平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101461523.html</t>
@@ -893,7 +893,7 @@
     <t>56768元/平米</t>
   </si>
   <si>
-    <t>89.84平米平米</t>
+    <t>89.84平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101468774.html</t>
@@ -902,7 +902,7 @@
     <t>51142元/平米</t>
   </si>
   <si>
-    <t>84.08平米平米</t>
+    <t>84.08平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100672342.html</t>
@@ -917,7 +917,7 @@
     <t>西北</t>
   </si>
   <si>
-    <t>91.63平米平米</t>
+    <t>91.63平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101382480.html</t>
@@ -929,13 +929,13 @@
     <t>53976元/平米</t>
   </si>
   <si>
-    <t>79.48平米平米</t>
+    <t>79.48平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101401582.html</t>
   </si>
   <si>
-    <t>86.4平米平米</t>
+    <t>86.4平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101455506.html</t>
@@ -944,7 +944,7 @@
     <t>59211元/平米</t>
   </si>
   <si>
-    <t>76平米平米</t>
+    <t>76平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101469144.html</t>
@@ -953,7 +953,7 @@
     <t>55341元/平米</t>
   </si>
   <si>
-    <t>95.77平米平米</t>
+    <t>95.77平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101311569.html</t>
@@ -962,7 +962,7 @@
     <t>59172元/平米</t>
   </si>
   <si>
-    <t>89.57平米平米</t>
+    <t>89.57平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101335187.html</t>
@@ -971,7 +971,7 @@
     <t>57901元/平米</t>
   </si>
   <si>
-    <t>89.81平米平米</t>
+    <t>89.81平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101416377.html</t>
@@ -980,7 +980,7 @@
     <t>57924元/平米</t>
   </si>
   <si>
-    <t>91.5平米平米</t>
+    <t>91.5平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101454716.html</t>
@@ -1007,7 +1007,7 @@
     <t>54730元/平米</t>
   </si>
   <si>
-    <t>80.03平米平米</t>
+    <t>80.03平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101444104.html</t>
@@ -1016,7 +1016,7 @@
     <t>53903元/平米</t>
   </si>
   <si>
-    <t>89.05平米平米</t>
+    <t>89.05平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101015665.html</t>
@@ -1031,7 +1031,7 @@
     <t>55389元/平米</t>
   </si>
   <si>
-    <t>86.66平米平米</t>
+    <t>86.66平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100299726.html</t>
@@ -1043,7 +1043,7 @@
     <t>54891元/平米</t>
   </si>
   <si>
-    <t>85.26平米平米</t>
+    <t>85.26平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101430498.html</t>
@@ -1055,7 +1055,7 @@
     <t>西南 东北</t>
   </si>
   <si>
-    <t>95.54平米平米</t>
+    <t>95.54平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101170777.html</t>
@@ -1088,7 +1088,7 @@
     <t>南溪新苑</t>
   </si>
   <si>
-    <t>78.48平米平米</t>
+    <t>78.48平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101383801.html</t>
@@ -1100,7 +1100,7 @@
     <t>东 西北</t>
   </si>
   <si>
-    <t>79.61平米平米</t>
+    <t>79.61平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101334297.html</t>
@@ -1109,7 +1109,7 @@
     <t>57654元/平米</t>
   </si>
   <si>
-    <t>79.44平米平米</t>
+    <t>79.44平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101163052.html</t>
@@ -1121,7 +1121,7 @@
     <t>绿景中城天邑花园</t>
   </si>
   <si>
-    <t>54.22平米平米</t>
+    <t>54.22平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101387283.html</t>
@@ -1133,7 +1133,7 @@
     <t>2008年建/板楼</t>
   </si>
   <si>
-    <t>68.55平米平米</t>
+    <t>68.55平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101237761.html</t>
@@ -1151,7 +1151,7 @@
     <t>擎天华庭</t>
   </si>
   <si>
-    <t>64.26平米平米</t>
+    <t>64.26平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101324792.html</t>
@@ -1169,7 +1169,7 @@
     <t>77010元/平米</t>
   </si>
   <si>
-    <t>62.33平米平米</t>
+    <t>62.33平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101406381.html</t>
@@ -1181,7 +1181,7 @@
     <t>缔梦园</t>
   </si>
   <si>
-    <t>54.51平米平米</t>
+    <t>54.51平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101104821.html</t>
@@ -1190,7 +1190,7 @@
     <t>78462元/平米</t>
   </si>
   <si>
-    <t>65平米平米</t>
+    <t>65平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100968855.html</t>
@@ -1205,7 +1205,7 @@
     <t>1998年建/塔楼</t>
   </si>
   <si>
-    <t>112.2平米平米</t>
+    <t>112.2平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101186865.html</t>
@@ -1217,7 +1217,7 @@
     <t>东 南</t>
   </si>
   <si>
-    <t>94.97平米平米</t>
+    <t>94.97平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101466470.html</t>
@@ -1226,7 +1226,7 @@
     <t>47547元/平米</t>
   </si>
   <si>
-    <t>92.12平米平米</t>
+    <t>92.12平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101421593.html</t>
@@ -1247,7 +1247,7 @@
     <t>景发花园</t>
   </si>
   <si>
-    <t>82.94平米平米</t>
+    <t>82.94平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101387735.html</t>
@@ -1256,7 +1256,7 @@
     <t>58259元/平米</t>
   </si>
   <si>
-    <t>92.69平米平米</t>
+    <t>92.69平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101265807.html</t>
@@ -1265,7 +1265,7 @@
     <t>59631元/平米</t>
   </si>
   <si>
-    <t>83.85平米平米</t>
+    <t>83.85平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101365820.html</t>
@@ -1277,7 +1277,7 @@
     <t>TT国际公寓</t>
   </si>
   <si>
-    <t>52.84平米平米</t>
+    <t>52.84平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101482711.html</t>
@@ -1298,7 +1298,7 @@
     <t>1992年建/板塔结合</t>
   </si>
   <si>
-    <t>85.23平米平米</t>
+    <t>85.23平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101495329.html</t>
@@ -1310,7 +1310,7 @@
     <t>65351元/平米</t>
   </si>
   <si>
-    <t>74.98平米平米</t>
+    <t>74.98平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101504341.html</t>
@@ -1319,7 +1319,7 @@
     <t>65579元/平米</t>
   </si>
   <si>
-    <t>74.72平米平米</t>
+    <t>74.72平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101382635.html</t>
@@ -1334,7 +1334,7 @@
     <t>1993年建/板塔结合</t>
   </si>
   <si>
-    <t>79.14平米平米</t>
+    <t>79.14平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101381447.html</t>
@@ -1343,7 +1343,7 @@
     <t>61916元/平米</t>
   </si>
   <si>
-    <t>85.6平米平米</t>
+    <t>85.6平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101379194.html</t>
@@ -1352,7 +1352,7 @@
     <t>49551元/平米</t>
   </si>
   <si>
-    <t>94.45平米平米</t>
+    <t>94.45平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101432239.html</t>
@@ -1373,7 +1373,7 @@
     <t>岗厦变电综合楼</t>
   </si>
   <si>
-    <t>98.78平米平米</t>
+    <t>98.78平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100815087.html</t>
@@ -1391,7 +1391,7 @@
     <t>福源大厦</t>
   </si>
   <si>
-    <t>93.55平米平米</t>
+    <t>93.55平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101430944.html</t>
@@ -1403,7 +1403,7 @@
     <t>4室2厅</t>
   </si>
   <si>
-    <t>100.45平米平米</t>
+    <t>100.45平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101387445.html</t>
@@ -1421,7 +1421,7 @@
     <t>54534元/平米</t>
   </si>
   <si>
-    <t>93.52平米平米</t>
+    <t>93.52平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101463312.html</t>
@@ -1430,7 +1430,7 @@
     <t>53341元/平米</t>
   </si>
   <si>
-    <t>78.74平米平米</t>
+    <t>78.74平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101459118.html</t>
@@ -1448,7 +1448,7 @@
     <t>东怡大厦</t>
   </si>
   <si>
-    <t>99.41平米平米</t>
+    <t>99.41平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101329774.html</t>
@@ -1478,7 +1478,7 @@
     <t>2004年建/塔楼</t>
   </si>
   <si>
-    <t>57.99平米平米</t>
+    <t>57.99平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101509674.html</t>
@@ -1490,7 +1490,7 @@
     <t>华景花园</t>
   </si>
   <si>
-    <t>97.24平米平米</t>
+    <t>97.24平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101461447.html</t>
@@ -1499,7 +1499,7 @@
     <t>52302元/平米</t>
   </si>
   <si>
-    <t>76.48平米平米</t>
+    <t>76.48平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101408126.html</t>
@@ -1532,7 +1532,7 @@
     <t>56486元/平米</t>
   </si>
   <si>
-    <t>95.6平米平米</t>
+    <t>95.6平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101364294.html</t>
@@ -1550,7 +1550,7 @@
     <t>1995年建/板楼</t>
   </si>
   <si>
-    <t>100.07平米平米</t>
+    <t>100.07平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101398165.html</t>
@@ -1562,7 +1562,7 @@
     <t>福兴花园</t>
   </si>
   <si>
-    <t>81.63平米平米</t>
+    <t>81.63平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101242863.html</t>
@@ -1571,7 +1571,7 @@
     <t>59907元/平米</t>
   </si>
   <si>
-    <t>79.29平米平米</t>
+    <t>79.29平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101492675.html</t>
@@ -1583,7 +1583,7 @@
     <t>新活力花园</t>
   </si>
   <si>
-    <t>91.71平米平米</t>
+    <t>91.71平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101405316.html</t>
@@ -1592,7 +1592,7 @@
     <t>49052元/平米</t>
   </si>
   <si>
-    <t>91.74平米平米</t>
+    <t>91.74平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101475518.html</t>
@@ -1607,7 +1607,7 @@
     <t>润华苑</t>
   </si>
   <si>
-    <t>88.59平米平米</t>
+    <t>88.59平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100526687.html</t>
@@ -1616,7 +1616,7 @@
     <t>52552元/平米</t>
   </si>
   <si>
-    <t>85.63平米平米</t>
+    <t>85.63平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100871427.html</t>
@@ -1628,7 +1628,7 @@
     <t>东南 东北</t>
   </si>
   <si>
-    <t>97.51平米平米</t>
+    <t>97.51平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100564498.html</t>
@@ -1643,7 +1643,7 @@
     <t>东 东南</t>
   </si>
   <si>
-    <t>86.53平米平米</t>
+    <t>86.53平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101481782.html</t>
@@ -1655,7 +1655,7 @@
     <t>嘉鑫阳光雅居</t>
   </si>
   <si>
-    <t>69.45平米平米</t>
+    <t>69.45平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101480584.html</t>
@@ -1670,7 +1670,7 @@
     <t>2001年建/塔楼</t>
   </si>
   <si>
-    <t>85.3平米平米</t>
+    <t>85.3平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101312464.html</t>
@@ -1685,7 +1685,7 @@
     <t>2000年建/塔楼</t>
   </si>
   <si>
-    <t>85.97平米平米</t>
+    <t>85.97平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101432046.html</t>
@@ -1694,7 +1694,7 @@
     <t>62194元/平米</t>
   </si>
   <si>
-    <t>83.61平米平米</t>
+    <t>83.61平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105100890846.html</t>
@@ -1706,7 +1706,7 @@
     <t>66000元/平米</t>
   </si>
   <si>
-    <t>76.97平米平米</t>
+    <t>76.97平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101230214.html</t>
@@ -1733,7 +1733,7 @@
     <t>合正园</t>
   </si>
   <si>
-    <t>81.61平米平米</t>
+    <t>81.61平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101486808.html</t>
@@ -1742,7 +1742,7 @@
     <t>51655元/平米</t>
   </si>
   <si>
-    <t>81.31平米平米</t>
+    <t>81.31平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101412627.html</t>
@@ -1754,7 +1754,7 @@
     <t>59483元/平米</t>
   </si>
   <si>
-    <t>87.42平米平米</t>
+    <t>87.42平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101399402.html</t>
@@ -1769,7 +1769,7 @@
     <t>59039元/平米</t>
   </si>
   <si>
-    <t>87.74平米平米</t>
+    <t>87.74平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101002741.html</t>
@@ -1781,7 +1781,7 @@
     <t>梅林二村</t>
   </si>
   <si>
-    <t>77.08平米平米</t>
+    <t>77.08平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101276129.html</t>
@@ -1796,10 +1796,1753 @@
     <t>67255元/平米</t>
   </si>
   <si>
-    <t>66.91平米平米</t>
+    <t>66.91平米</t>
   </si>
   <si>
     <t>https://sz.lianjia.com/ershoufang/105101186275.html</t>
+  </si>
+  <si>
+    <t>62484元/平米</t>
+  </si>
+  <si>
+    <t>碧荔花园</t>
+  </si>
+  <si>
+    <t>75.22平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100928453.html</t>
+  </si>
+  <si>
+    <t>55941元/平米</t>
+  </si>
+  <si>
+    <t>82.23平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101432920.html</t>
+  </si>
+  <si>
+    <t>62351元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101269340.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100914380.html</t>
+  </si>
+  <si>
+    <t>景鹏小学</t>
+  </si>
+  <si>
+    <t>67891元/平米</t>
+  </si>
+  <si>
+    <t>香蜜三村</t>
+  </si>
+  <si>
+    <t>79.54平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101507645.html</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>62545元/平米</t>
+  </si>
+  <si>
+    <t>时代华庭</t>
+  </si>
+  <si>
+    <t>83.94平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101194867.html</t>
+  </si>
+  <si>
+    <t>57598元/平米</t>
+  </si>
+  <si>
+    <t>东景花园</t>
+  </si>
+  <si>
+    <t>82.99平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101328297.html</t>
+  </si>
+  <si>
+    <t>76122元/平米</t>
+  </si>
+  <si>
+    <t>五洲星苑</t>
+  </si>
+  <si>
+    <t>62.4平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101312104.html</t>
+  </si>
+  <si>
+    <t>53506元/平米</t>
+  </si>
+  <si>
+    <t>景苑大厦</t>
+  </si>
+  <si>
+    <t>89.71平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101461978.html</t>
+  </si>
+  <si>
+    <t>50684元/平米</t>
+  </si>
+  <si>
+    <t>104.57平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101416585.html</t>
+  </si>
+  <si>
+    <t>56428元/平米</t>
+  </si>
+  <si>
+    <t>88.61平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101453533.html</t>
+  </si>
+  <si>
+    <t>57258元/平米</t>
+  </si>
+  <si>
+    <t>华富大厦</t>
+  </si>
+  <si>
+    <t>69.86平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101453979.html</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>62840元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101298479.html</t>
+  </si>
+  <si>
+    <t>58660元/平米</t>
+  </si>
+  <si>
+    <t>锦文阁大厦</t>
+  </si>
+  <si>
+    <t>71.6平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101516044.html</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>72706元/平米</t>
+  </si>
+  <si>
+    <t>1室1厅</t>
+  </si>
+  <si>
+    <t>合正名园</t>
+  </si>
+  <si>
+    <t>65.47平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101413211.html</t>
+  </si>
+  <si>
+    <t>87720元/平米</t>
+  </si>
+  <si>
+    <t>缇香名苑</t>
+  </si>
+  <si>
+    <t>45.6平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101476762.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101311352.html</t>
+  </si>
+  <si>
+    <t>92106元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100838543.html</t>
+  </si>
+  <si>
+    <t>众孚小学</t>
+  </si>
+  <si>
+    <t>55763元/平米</t>
+  </si>
+  <si>
+    <t>众孚大厦</t>
+  </si>
+  <si>
+    <t>78.01平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101454353.html</t>
+  </si>
+  <si>
+    <t>58967元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101384748.html</t>
+  </si>
+  <si>
+    <t>57693元/平米</t>
+  </si>
+  <si>
+    <t>78平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101488124.html</t>
+  </si>
+  <si>
+    <t>56404元/平米</t>
+  </si>
+  <si>
+    <t>2002年建/板塔结合</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101504353.html</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>53394元/平米</t>
+  </si>
+  <si>
+    <t>100.2平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101381471.html</t>
+  </si>
+  <si>
+    <t>52895元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101251484.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101229313.html</t>
+  </si>
+  <si>
+    <t>75645元/平米</t>
+  </si>
+  <si>
+    <t>时尚名居</t>
+  </si>
+  <si>
+    <t>2003年建/板楼</t>
+  </si>
+  <si>
+    <t>60.15平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101402198.html</t>
+  </si>
+  <si>
+    <t>74813元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101425642.html</t>
+  </si>
+  <si>
+    <t>65528元/平米</t>
+  </si>
+  <si>
+    <t>星河明居</t>
+  </si>
+  <si>
+    <t>77.83平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101447259.html</t>
+  </si>
+  <si>
+    <t>64243元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101175048.html</t>
+  </si>
+  <si>
+    <t>石厦小学</t>
+  </si>
+  <si>
+    <t>73655元/平米</t>
+  </si>
+  <si>
+    <t>碧馨苑</t>
+  </si>
+  <si>
+    <t>70.6平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101078658.html</t>
+  </si>
+  <si>
+    <t>70547元/平米</t>
+  </si>
+  <si>
+    <t>瑞和园</t>
+  </si>
+  <si>
+    <t>68.04平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101432419.html</t>
+  </si>
+  <si>
+    <t>73465元/平米</t>
+  </si>
+  <si>
+    <t>68.06平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101354987.html</t>
+  </si>
+  <si>
+    <t>68641元/平米</t>
+  </si>
+  <si>
+    <t>74.3平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100156557.html</t>
+  </si>
+  <si>
+    <t>85638元/平米</t>
+  </si>
+  <si>
+    <t>缔馨园</t>
+  </si>
+  <si>
+    <t>48.46平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101484017.html</t>
+  </si>
+  <si>
+    <t>87275元/平米</t>
+  </si>
+  <si>
+    <t>丽阳天下</t>
+  </si>
+  <si>
+    <t>49.27平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101439041.html</t>
+  </si>
+  <si>
+    <t>95760元/平米</t>
+  </si>
+  <si>
+    <t>43.86平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101507835.html</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>78698元/平米</t>
+  </si>
+  <si>
+    <t>合正佳园</t>
+  </si>
+  <si>
+    <t>64.17平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101451265.html</t>
+  </si>
+  <si>
+    <t>92188元/平米</t>
+  </si>
+  <si>
+    <t>绿洲丰和</t>
+  </si>
+  <si>
+    <t>43.39平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101417559.html</t>
+  </si>
+  <si>
+    <t>100431元/平米</t>
+  </si>
+  <si>
+    <t>41.82平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101473136.html</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>59998元/平米</t>
+  </si>
+  <si>
+    <t>南方国际广场</t>
+  </si>
+  <si>
+    <t>2005年建/塔楼</t>
+  </si>
+  <si>
+    <t>87.67平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101216952.html</t>
+  </si>
+  <si>
+    <t>61824元/平米</t>
+  </si>
+  <si>
+    <t>84.11平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101321389.html</t>
+  </si>
+  <si>
+    <t>59908元/平米</t>
+  </si>
+  <si>
+    <t>86.8平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101216954.html</t>
+  </si>
+  <si>
+    <t>60130元/平米</t>
+  </si>
+  <si>
+    <t>86.48平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101321400.html</t>
+  </si>
+  <si>
+    <t>60628元/平米</t>
+  </si>
+  <si>
+    <t>84.12平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101402388.html</t>
+  </si>
+  <si>
+    <t>55332元/平米</t>
+  </si>
+  <si>
+    <t>86.75平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101494979.html</t>
+  </si>
+  <si>
+    <t>景秀小学</t>
+  </si>
+  <si>
+    <t>62531元/平米</t>
+  </si>
+  <si>
+    <t>香景大厦</t>
+  </si>
+  <si>
+    <t>82.36平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101435224.html</t>
+  </si>
+  <si>
+    <t>60186元/平米</t>
+  </si>
+  <si>
+    <t>景田南小区</t>
+  </si>
+  <si>
+    <t>1994年建/板楼</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101193631.html</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>66233元/平米</t>
+  </si>
+  <si>
+    <t>81.38平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101304888.html</t>
+  </si>
+  <si>
+    <t>64011元/平米</t>
+  </si>
+  <si>
+    <t>76.55平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101225129.html</t>
+  </si>
+  <si>
+    <t>65317元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101397940.html</t>
+  </si>
+  <si>
+    <t>65419元/平米</t>
+  </si>
+  <si>
+    <t>景新花园</t>
+  </si>
+  <si>
+    <t>1997年建/塔楼</t>
+  </si>
+  <si>
+    <t>77.96平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101393414.html</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>64906元/平米</t>
+  </si>
+  <si>
+    <t>1995年建/塔楼</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101377419.html</t>
+  </si>
+  <si>
+    <t>65162元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101439481.html</t>
+  </si>
+  <si>
+    <t>72791元/平米</t>
+  </si>
+  <si>
+    <t>天一名居</t>
+  </si>
+  <si>
+    <t>68.69平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101372309.html</t>
+  </si>
+  <si>
+    <t>69880元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101420817.html</t>
+  </si>
+  <si>
+    <t>58648元/平米</t>
+  </si>
+  <si>
+    <t>景鹏大厦</t>
+  </si>
+  <si>
+    <t>90.37平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101470820.html</t>
+  </si>
+  <si>
+    <t>南 西</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101473225.html</t>
+  </si>
+  <si>
+    <t>57118元/平米</t>
+  </si>
+  <si>
+    <t>4室1厅</t>
+  </si>
+  <si>
+    <t>西 北</t>
+  </si>
+  <si>
+    <t>90.34平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101192218.html</t>
+  </si>
+  <si>
+    <t>56435元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101518326.html</t>
+  </si>
+  <si>
+    <t>福民小学</t>
+  </si>
+  <si>
+    <t>50067元/平米</t>
+  </si>
+  <si>
+    <t>海滨广场</t>
+  </si>
+  <si>
+    <t>82.89平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101092710.html</t>
+  </si>
+  <si>
+    <t>56098元/平米</t>
+  </si>
+  <si>
+    <t>89.13平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101499119.html</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>49697元/平米</t>
+  </si>
+  <si>
+    <t>82.5平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100880492.html</t>
+  </si>
+  <si>
+    <t>48485元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101199380.html</t>
+  </si>
+  <si>
+    <t>53236元/平米</t>
+  </si>
+  <si>
+    <t>84.53平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101462843.html</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>44563元/平米</t>
+  </si>
+  <si>
+    <t>120.73平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101207473.html</t>
+  </si>
+  <si>
+    <t>53630元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101356400.html</t>
+  </si>
+  <si>
+    <t>50421元/平米</t>
+  </si>
+  <si>
+    <t>86.87平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101440632.html</t>
+  </si>
+  <si>
+    <t>49547元/平米</t>
+  </si>
+  <si>
+    <t>82.75平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101278547.html</t>
+  </si>
+  <si>
+    <t>59982元/平米</t>
+  </si>
+  <si>
+    <t>金地名津</t>
+  </si>
+  <si>
+    <t>76.69平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101494110.html</t>
+  </si>
+  <si>
+    <t>67092元/平米</t>
+  </si>
+  <si>
+    <t>59.62平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101462079.html</t>
+  </si>
+  <si>
+    <t>60128元/平米</t>
+  </si>
+  <si>
+    <t>84.82平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100821852.html</t>
+  </si>
+  <si>
+    <t>63390元/平米</t>
+  </si>
+  <si>
+    <t>77.3平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101110326.html</t>
+  </si>
+  <si>
+    <t>54250元/平米</t>
+  </si>
+  <si>
+    <t>福民大厦</t>
+  </si>
+  <si>
+    <t>80.37平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101471996.html</t>
+  </si>
+  <si>
+    <t>54498元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100946418.html</t>
+  </si>
+  <si>
+    <t>51015元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101011474.html</t>
+  </si>
+  <si>
+    <t>55550元/平米</t>
+  </si>
+  <si>
+    <t>90.91平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101475450.html</t>
+  </si>
+  <si>
+    <t>58300元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101379994.html</t>
+  </si>
+  <si>
+    <t>51590元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101264387.html</t>
+  </si>
+  <si>
+    <t>56987元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101280204.html</t>
+  </si>
+  <si>
+    <t>53254元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101503192.html</t>
+  </si>
+  <si>
+    <t>50330元/平米</t>
+  </si>
+  <si>
+    <t>福昌大厦</t>
+  </si>
+  <si>
+    <t>89.41平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101255504.html</t>
+  </si>
+  <si>
+    <t>58126元/平米</t>
+  </si>
+  <si>
+    <t>80.86平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101364308.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101231805.html</t>
+  </si>
+  <si>
+    <t>61163元/平米</t>
+  </si>
+  <si>
+    <t>星河华居</t>
+  </si>
+  <si>
+    <t>68.67平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101453203.html</t>
+  </si>
+  <si>
+    <t>59300元/平米</t>
+  </si>
+  <si>
+    <t>69.14平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101320767.html</t>
+  </si>
+  <si>
+    <t>59706元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101326714.html</t>
+  </si>
+  <si>
+    <t>61891元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101434271.html</t>
+  </si>
+  <si>
+    <t>60434元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101276897.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101371207.html</t>
+  </si>
+  <si>
+    <t>65016元/平米</t>
+  </si>
+  <si>
+    <t>阳基阳光城市</t>
+  </si>
+  <si>
+    <t>64.6平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100828244.html</t>
+  </si>
+  <si>
+    <t>64636元/平米</t>
+  </si>
+  <si>
+    <t>64.98平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101468239.html</t>
+  </si>
+  <si>
+    <t>62482元/平米</t>
+  </si>
+  <si>
+    <t>皇庭居</t>
+  </si>
+  <si>
+    <t>67.22平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101462872.html</t>
+  </si>
+  <si>
+    <t>64851元/平米</t>
+  </si>
+  <si>
+    <t>69.39平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101344036.html</t>
+  </si>
+  <si>
+    <t>60250元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101290490.html</t>
+  </si>
+  <si>
+    <t>65457元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101340325.html</t>
+  </si>
+  <si>
+    <t>54816元/平米</t>
+  </si>
+  <si>
+    <t>紫光名苑</t>
+  </si>
+  <si>
+    <t>76.62平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101469252.html</t>
+  </si>
+  <si>
+    <t>56774元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101324890.html</t>
+  </si>
+  <si>
+    <t>62440元/平米</t>
+  </si>
+  <si>
+    <t>景源华庭</t>
+  </si>
+  <si>
+    <t>72.07平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101498224.html</t>
+  </si>
+  <si>
+    <t>62657元/平米</t>
+  </si>
+  <si>
+    <t>71.82平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101497556.html</t>
+  </si>
+  <si>
+    <t>61539元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101347441.html</t>
+  </si>
+  <si>
+    <t>54602元/平米</t>
+  </si>
+  <si>
+    <t>富强花园</t>
+  </si>
+  <si>
+    <t>75.09平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101429694.html</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>54335元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101393967.html</t>
+  </si>
+  <si>
+    <t>52904元/平米</t>
+  </si>
+  <si>
+    <t>卫检大厦</t>
+  </si>
+  <si>
+    <t>81.28平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101423728.html</t>
+  </si>
+  <si>
+    <t>华富小学</t>
+  </si>
+  <si>
+    <t>38760元/平米</t>
+  </si>
+  <si>
+    <t>紫薇苑西区</t>
+  </si>
+  <si>
+    <t>2009年建/板楼</t>
+  </si>
+  <si>
+    <t>129平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101497362.html</t>
+  </si>
+  <si>
+    <t>70097元/平米</t>
+  </si>
+  <si>
+    <t>华发大院</t>
+  </si>
+  <si>
+    <t>1985年建/暂无数据</t>
+  </si>
+  <si>
+    <t>71.33平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101357252.html</t>
+  </si>
+  <si>
+    <t>112765元/平米</t>
+  </si>
+  <si>
+    <t>东方时代广场</t>
+  </si>
+  <si>
+    <t>44.34平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101470427.html</t>
+  </si>
+  <si>
+    <t>65699元/平米</t>
+  </si>
+  <si>
+    <t>79.15平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101464131.html</t>
+  </si>
+  <si>
+    <t>63643元/平米</t>
+  </si>
+  <si>
+    <t>78.25平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101116550.html</t>
+  </si>
+  <si>
+    <t>80013元/平米</t>
+  </si>
+  <si>
+    <t>中航北苑大厦</t>
+  </si>
+  <si>
+    <t>2012年建/板塔结合</t>
+  </si>
+  <si>
+    <t>62.49平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101103522.html</t>
+  </si>
+  <si>
+    <t>岗厦小学</t>
+  </si>
+  <si>
+    <t>49912元/平米</t>
+  </si>
+  <si>
+    <t>高科利花园</t>
+  </si>
+  <si>
+    <t>96.17平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101364287.html</t>
+  </si>
+  <si>
+    <t>47832元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100898084.html</t>
+  </si>
+  <si>
+    <t>49334元/平米</t>
+  </si>
+  <si>
+    <t>81.08平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101419777.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101383589.html</t>
+  </si>
+  <si>
+    <t>45753元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101505239.html</t>
+  </si>
+  <si>
+    <t>46793元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101418934.html</t>
+  </si>
+  <si>
+    <t>46798元/平米</t>
+  </si>
+  <si>
+    <t>102.57平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101284398.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100454997.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101461068.html</t>
+  </si>
+  <si>
+    <t>56508元/平米</t>
+  </si>
+  <si>
+    <t>彩天名苑</t>
+  </si>
+  <si>
+    <t>85.83平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101385142.html</t>
+  </si>
+  <si>
+    <t>南华小学</t>
+  </si>
+  <si>
+    <t>56094元/平米</t>
+  </si>
+  <si>
+    <t>南华花园</t>
+  </si>
+  <si>
+    <t>78.44平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101240315.html</t>
+  </si>
+  <si>
+    <t>63743元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101388582.html</t>
+  </si>
+  <si>
+    <t>53186元/平米</t>
+  </si>
+  <si>
+    <t>鹏丽大厦</t>
+  </si>
+  <si>
+    <t>84.61平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101156042.html</t>
+  </si>
+  <si>
+    <t>57322元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100675059.html</t>
+  </si>
+  <si>
+    <t>60071元/平米</t>
+  </si>
+  <si>
+    <t>84.9平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100671707.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100588023.html</t>
+  </si>
+  <si>
+    <t>65640元/平米</t>
+  </si>
+  <si>
+    <t>京基御景华城</t>
+  </si>
+  <si>
+    <t>70.08平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101344994.html</t>
+  </si>
+  <si>
+    <t>63421元/平米</t>
+  </si>
+  <si>
+    <t>80.1平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101136685.html</t>
+  </si>
+  <si>
+    <t>64527元/平米</t>
+  </si>
+  <si>
+    <t>65.09平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101393658.html</t>
+  </si>
+  <si>
+    <t>65300元/平米</t>
+  </si>
+  <si>
+    <t>65.85平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101165005.html</t>
+  </si>
+  <si>
+    <t>58379元/平米</t>
+  </si>
+  <si>
+    <t>75.37平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101480872.html</t>
+  </si>
+  <si>
+    <t>64008元/平米</t>
+  </si>
+  <si>
+    <t>67.18平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101483110.html</t>
+  </si>
+  <si>
+    <t>58179元/平米</t>
+  </si>
+  <si>
+    <t>74.77平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101029806.html</t>
+  </si>
+  <si>
+    <t>59383元/平米</t>
+  </si>
+  <si>
+    <t>67.36平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101142657.html</t>
+  </si>
+  <si>
+    <t>67874元/平米</t>
+  </si>
+  <si>
+    <t>61.88平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101081376.html</t>
+  </si>
+  <si>
+    <t>64418元/平米</t>
+  </si>
+  <si>
+    <t>65.2平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101504313.html</t>
+  </si>
+  <si>
+    <t>62117元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101500590.html</t>
+  </si>
+  <si>
+    <t>69019元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101480617.html</t>
+  </si>
+  <si>
+    <t>61299元/平米</t>
+  </si>
+  <si>
+    <t>71.78平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101405404.html</t>
+  </si>
+  <si>
+    <t>68245元/平米</t>
+  </si>
+  <si>
+    <t>80.3平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101478442.html</t>
+  </si>
+  <si>
+    <t>67384元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101479976.html</t>
+  </si>
+  <si>
+    <t>60486元/平米</t>
+  </si>
+  <si>
+    <t>75.39平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101286540.html</t>
+  </si>
+  <si>
+    <t>54291元/平米</t>
+  </si>
+  <si>
+    <t>汇港名苑</t>
+  </si>
+  <si>
+    <t>84.73平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101458198.html</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>56783元/平米</t>
+  </si>
+  <si>
+    <t>西 西北</t>
+  </si>
+  <si>
+    <t>95.98平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101483684.html</t>
+  </si>
+  <si>
+    <t>56054元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101258263.html</t>
+  </si>
+  <si>
+    <t>52720元/平米</t>
+  </si>
+  <si>
+    <t>77.77平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101309801.html</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>56835元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101246779.html</t>
+  </si>
+  <si>
+    <t>54917元/平米</t>
+  </si>
+  <si>
+    <t>77.39平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101404360.html</t>
+  </si>
+  <si>
+    <t>55570元/平米</t>
+  </si>
+  <si>
+    <t>77.38平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101284115.html</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101473769.html</t>
+  </si>
+  <si>
+    <t>56754元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101516742.html</t>
+  </si>
+  <si>
+    <t>76896元/平米</t>
+  </si>
+  <si>
+    <t>水畔紫云阁</t>
+  </si>
+  <si>
+    <t>55.92平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101489623.html</t>
+  </si>
+  <si>
+    <t>95034元/平米</t>
+  </si>
+  <si>
+    <t>东南 南</t>
+  </si>
+  <si>
+    <t>55.77平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101446848.html</t>
+  </si>
+  <si>
+    <t>61380元/平米</t>
+  </si>
+  <si>
+    <t>2013年建/板塔结合</t>
+  </si>
+  <si>
+    <t>81.46平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101041223.html</t>
+  </si>
+  <si>
+    <t>80530元/平米</t>
+  </si>
+  <si>
+    <t>55.88平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101507231.html</t>
+  </si>
+  <si>
+    <t>南园小学</t>
+  </si>
+  <si>
+    <t>68774元/平米</t>
+  </si>
+  <si>
+    <t>南园新村</t>
+  </si>
+  <si>
+    <t>1983年建/板楼</t>
+  </si>
+  <si>
+    <t>75.61平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101442982.html</t>
+  </si>
+  <si>
+    <t>70758元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101333453.html</t>
+  </si>
+  <si>
+    <t>47050元/平米</t>
+  </si>
+  <si>
+    <t>五邑大厦</t>
+  </si>
+  <si>
+    <t>106.27平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101460266.html</t>
+  </si>
+  <si>
+    <t>43286元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101457046.html</t>
+  </si>
+  <si>
+    <t>42858元/平米</t>
+  </si>
+  <si>
+    <t>赛格苑</t>
+  </si>
+  <si>
+    <t>1988年建/板塔结合</t>
+  </si>
+  <si>
+    <t>98平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101465589.html</t>
+  </si>
+  <si>
+    <t>44694元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101215804.html</t>
+  </si>
+  <si>
+    <t>54953元/平米</t>
+  </si>
+  <si>
+    <t>1987年建/板塔结合</t>
+  </si>
+  <si>
+    <t>72.79平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101097031.html</t>
+  </si>
+  <si>
+    <t>59399元/平米</t>
+  </si>
+  <si>
+    <t>飞扬时代大厦</t>
+  </si>
+  <si>
+    <t>75.76平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101181577.html</t>
+  </si>
+  <si>
+    <t>51454元/平米</t>
+  </si>
+  <si>
+    <t>77.74平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101294777.html</t>
+  </si>
+  <si>
+    <t>新洲小学</t>
+  </si>
+  <si>
+    <t>58095元/平米</t>
+  </si>
+  <si>
+    <t>新洲花园</t>
+  </si>
+  <si>
+    <t>1993年建/板楼</t>
+  </si>
+  <si>
+    <t>77.46平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101435175.html</t>
+  </si>
+  <si>
+    <t>54422元/平米</t>
+  </si>
+  <si>
+    <t>80.85平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100446359.html</t>
+  </si>
+  <si>
+    <t>54931元/平米</t>
+  </si>
+  <si>
+    <t>76.46平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101432964.html</t>
+  </si>
+  <si>
+    <t>58110元/平米</t>
+  </si>
+  <si>
+    <t>77.44平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101504794.html</t>
+  </si>
+  <si>
+    <t>65394元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101399105.html</t>
+  </si>
+  <si>
+    <t>荔园小学</t>
+  </si>
+  <si>
+    <t>90721元/平米</t>
+  </si>
+  <si>
+    <t>1室0厅</t>
+  </si>
+  <si>
+    <t>阁林网苑</t>
+  </si>
+  <si>
+    <t>52.91平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101429947.html</t>
+  </si>
+  <si>
+    <t>76561元/平米</t>
+  </si>
+  <si>
+    <t>67.92平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101439578.html</t>
+  </si>
+  <si>
+    <t>70695元/平米</t>
+  </si>
+  <si>
+    <t>2009年建/板塔结合</t>
+  </si>
+  <si>
+    <t>74.97平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100729907.html</t>
+  </si>
+  <si>
+    <t>71696元/平米</t>
+  </si>
+  <si>
+    <t>64.16平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100943885.html</t>
+  </si>
+  <si>
+    <t>66255元/平米</t>
+  </si>
+  <si>
+    <t>2室0厅</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100727669.html</t>
+  </si>
+  <si>
+    <t>85314元/平米</t>
+  </si>
+  <si>
+    <t>49.23平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105100890170.html</t>
+  </si>
+  <si>
+    <t>94213元/平米</t>
+  </si>
+  <si>
+    <t>44.58平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101433682.html</t>
+  </si>
+  <si>
+    <t>69586元/平米</t>
+  </si>
+  <si>
+    <t>63.95平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101334641.html</t>
+  </si>
+  <si>
+    <t>83257元/平米</t>
+  </si>
+  <si>
+    <t>54.05平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101098958.html</t>
+  </si>
+  <si>
+    <t>66694元/平米</t>
+  </si>
+  <si>
+    <t>东 北</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101315314.html</t>
+  </si>
+  <si>
+    <t>83931元/平米</t>
+  </si>
+  <si>
+    <t>53.02平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101510382.html</t>
+  </si>
+  <si>
+    <t>103375元/平米</t>
+  </si>
+  <si>
+    <t>航天立业华庭</t>
+  </si>
+  <si>
+    <t>51.27平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101445371.html</t>
+  </si>
+  <si>
+    <t>106656元/平米</t>
+  </si>
+  <si>
+    <t>玮鹏花园</t>
+  </si>
+  <si>
+    <t>46.88平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101480873.html</t>
+  </si>
+  <si>
+    <t>104523元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101449405.html</t>
+  </si>
+  <si>
+    <t>110922元/平米</t>
+  </si>
+  <si>
+    <t>https://sz.lianjia.com/ershoufang/105101474036.html</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +3878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6870,6 +8613,5574 @@
         <v>594</v>
       </c>
     </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>507</v>
+      </c>
+      <c r="B164" t="s">
+        <v>126</v>
+      </c>
+      <c r="C164" t="s">
+        <v>595</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164" t="s">
+        <v>596</v>
+      </c>
+      <c r="G164" t="s">
+        <v>119</v>
+      </c>
+      <c r="H164" t="s">
+        <v>597</v>
+      </c>
+      <c r="I164" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>507</v>
+      </c>
+      <c r="B165" t="s">
+        <v>71</v>
+      </c>
+      <c r="C165" t="s">
+        <v>599</v>
+      </c>
+      <c r="D165" t="s">
+        <v>165</v>
+      </c>
+      <c r="E165" t="s">
+        <v>566</v>
+      </c>
+      <c r="F165" t="s">
+        <v>596</v>
+      </c>
+      <c r="G165" t="s">
+        <v>95</v>
+      </c>
+      <c r="H165" t="s">
+        <v>600</v>
+      </c>
+      <c r="I165" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>507</v>
+      </c>
+      <c r="B166" t="s">
+        <v>45</v>
+      </c>
+      <c r="C166" t="s">
+        <v>602</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>596</v>
+      </c>
+      <c r="G166" t="s">
+        <v>119</v>
+      </c>
+      <c r="H166" t="s">
+        <v>597</v>
+      </c>
+      <c r="I166" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>507</v>
+      </c>
+      <c r="B167" t="s">
+        <v>126</v>
+      </c>
+      <c r="C167" t="s">
+        <v>595</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>59</v>
+      </c>
+      <c r="F167" t="s">
+        <v>596</v>
+      </c>
+      <c r="G167" t="s">
+        <v>119</v>
+      </c>
+      <c r="H167" t="s">
+        <v>597</v>
+      </c>
+      <c r="I167" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>605</v>
+      </c>
+      <c r="B168" t="s">
+        <v>93</v>
+      </c>
+      <c r="C168" t="s">
+        <v>606</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" t="s">
+        <v>21</v>
+      </c>
+      <c r="F168" t="s">
+        <v>607</v>
+      </c>
+      <c r="G168" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" t="s">
+        <v>608</v>
+      </c>
+      <c r="I168" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>605</v>
+      </c>
+      <c r="B169" t="s">
+        <v>610</v>
+      </c>
+      <c r="C169" t="s">
+        <v>611</v>
+      </c>
+      <c r="D169" t="s">
+        <v>42</v>
+      </c>
+      <c r="E169" t="s">
+        <v>299</v>
+      </c>
+      <c r="F169" t="s">
+        <v>612</v>
+      </c>
+      <c r="G169" t="s">
+        <v>245</v>
+      </c>
+      <c r="H169" t="s">
+        <v>613</v>
+      </c>
+      <c r="I169" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>605</v>
+      </c>
+      <c r="B170" t="s">
+        <v>539</v>
+      </c>
+      <c r="C170" t="s">
+        <v>615</v>
+      </c>
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" t="s">
+        <v>21</v>
+      </c>
+      <c r="F170" t="s">
+        <v>616</v>
+      </c>
+      <c r="G170" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" t="s">
+        <v>617</v>
+      </c>
+      <c r="I170" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>605</v>
+      </c>
+      <c r="B171" t="s">
+        <v>407</v>
+      </c>
+      <c r="C171" t="s">
+        <v>619</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>620</v>
+      </c>
+      <c r="G171" t="s">
+        <v>231</v>
+      </c>
+      <c r="H171" t="s">
+        <v>621</v>
+      </c>
+      <c r="I171" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>605</v>
+      </c>
+      <c r="B172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C172" t="s">
+        <v>623</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" t="s">
+        <v>299</v>
+      </c>
+      <c r="F172" t="s">
+        <v>624</v>
+      </c>
+      <c r="G172" t="s">
+        <v>148</v>
+      </c>
+      <c r="H172" t="s">
+        <v>625</v>
+      </c>
+      <c r="I172" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>605</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" t="s">
+        <v>627</v>
+      </c>
+      <c r="D173" t="s">
+        <v>32</v>
+      </c>
+      <c r="E173" t="s">
+        <v>37</v>
+      </c>
+      <c r="F173" t="s">
+        <v>624</v>
+      </c>
+      <c r="G173" t="s">
+        <v>148</v>
+      </c>
+      <c r="H173" t="s">
+        <v>628</v>
+      </c>
+      <c r="I173" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>605</v>
+      </c>
+      <c r="B174" t="s">
+        <v>30</v>
+      </c>
+      <c r="C174" t="s">
+        <v>630</v>
+      </c>
+      <c r="D174" t="s">
+        <v>42</v>
+      </c>
+      <c r="E174" t="s">
+        <v>59</v>
+      </c>
+      <c r="F174" t="s">
+        <v>624</v>
+      </c>
+      <c r="G174" t="s">
+        <v>148</v>
+      </c>
+      <c r="H174" t="s">
+        <v>631</v>
+      </c>
+      <c r="I174" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>605</v>
+      </c>
+      <c r="B175" t="s">
+        <v>483</v>
+      </c>
+      <c r="C175" t="s">
+        <v>633</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>566</v>
+      </c>
+      <c r="F175" t="s">
+        <v>634</v>
+      </c>
+      <c r="G175" t="s">
+        <v>169</v>
+      </c>
+      <c r="H175" t="s">
+        <v>635</v>
+      </c>
+      <c r="I175" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>605</v>
+      </c>
+      <c r="B176" t="s">
+        <v>637</v>
+      </c>
+      <c r="C176" t="s">
+        <v>638</v>
+      </c>
+      <c r="D176" t="s">
+        <v>42</v>
+      </c>
+      <c r="E176" t="s">
+        <v>566</v>
+      </c>
+      <c r="F176" t="s">
+        <v>634</v>
+      </c>
+      <c r="G176" t="s">
+        <v>245</v>
+      </c>
+      <c r="H176" t="s">
+        <v>635</v>
+      </c>
+      <c r="I176" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>605</v>
+      </c>
+      <c r="B177" t="s">
+        <v>82</v>
+      </c>
+      <c r="C177" t="s">
+        <v>640</v>
+      </c>
+      <c r="D177" t="s">
+        <v>32</v>
+      </c>
+      <c r="E177" t="s">
+        <v>37</v>
+      </c>
+      <c r="F177" t="s">
+        <v>641</v>
+      </c>
+      <c r="G177" t="s">
+        <v>109</v>
+      </c>
+      <c r="H177" t="s">
+        <v>642</v>
+      </c>
+      <c r="I177" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>605</v>
+      </c>
+      <c r="B178" t="s">
+        <v>644</v>
+      </c>
+      <c r="C178" t="s">
+        <v>645</v>
+      </c>
+      <c r="D178" t="s">
+        <v>646</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
+        <v>647</v>
+      </c>
+      <c r="G178" t="s">
+        <v>23</v>
+      </c>
+      <c r="H178" t="s">
+        <v>648</v>
+      </c>
+      <c r="I178" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>605</v>
+      </c>
+      <c r="B179" t="s">
+        <v>483</v>
+      </c>
+      <c r="C179" t="s">
+        <v>650</v>
+      </c>
+      <c r="D179" t="s">
+        <v>646</v>
+      </c>
+      <c r="E179" t="s">
+        <v>59</v>
+      </c>
+      <c r="F179" t="s">
+        <v>651</v>
+      </c>
+      <c r="G179" t="s">
+        <v>206</v>
+      </c>
+      <c r="H179" t="s">
+        <v>652</v>
+      </c>
+      <c r="I179" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>605</v>
+      </c>
+      <c r="B180" t="s">
+        <v>483</v>
+      </c>
+      <c r="C180" t="s">
+        <v>650</v>
+      </c>
+      <c r="D180" t="s">
+        <v>646</v>
+      </c>
+      <c r="E180" t="s">
+        <v>566</v>
+      </c>
+      <c r="F180" t="s">
+        <v>651</v>
+      </c>
+      <c r="G180" t="s">
+        <v>206</v>
+      </c>
+      <c r="H180" t="s">
+        <v>652</v>
+      </c>
+      <c r="I180" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>605</v>
+      </c>
+      <c r="B181" t="s">
+        <v>82</v>
+      </c>
+      <c r="C181" t="s">
+        <v>655</v>
+      </c>
+      <c r="D181" t="s">
+        <v>646</v>
+      </c>
+      <c r="E181" t="s">
+        <v>465</v>
+      </c>
+      <c r="F181" t="s">
+        <v>651</v>
+      </c>
+      <c r="G181" t="s">
+        <v>206</v>
+      </c>
+      <c r="H181" t="s">
+        <v>652</v>
+      </c>
+      <c r="I181" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>657</v>
+      </c>
+      <c r="B182" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" t="s">
+        <v>658</v>
+      </c>
+      <c r="D182" t="s">
+        <v>42</v>
+      </c>
+      <c r="E182" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" t="s">
+        <v>659</v>
+      </c>
+      <c r="G182" t="s">
+        <v>426</v>
+      </c>
+      <c r="H182" t="s">
+        <v>660</v>
+      </c>
+      <c r="I182" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>657</v>
+      </c>
+      <c r="B183" t="s">
+        <v>71</v>
+      </c>
+      <c r="C183" t="s">
+        <v>662</v>
+      </c>
+      <c r="D183" t="s">
+        <v>646</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
+        <v>659</v>
+      </c>
+      <c r="G183" t="s">
+        <v>148</v>
+      </c>
+      <c r="H183" t="s">
+        <v>660</v>
+      </c>
+      <c r="I183" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>657</v>
+      </c>
+      <c r="B184" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" t="s">
+        <v>664</v>
+      </c>
+      <c r="D184" t="s">
+        <v>42</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>659</v>
+      </c>
+      <c r="G184" t="s">
+        <v>426</v>
+      </c>
+      <c r="H184" t="s">
+        <v>665</v>
+      </c>
+      <c r="I184" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>657</v>
+      </c>
+      <c r="B185" t="s">
+        <v>325</v>
+      </c>
+      <c r="C185" t="s">
+        <v>667</v>
+      </c>
+      <c r="D185" t="s">
+        <v>42</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
+        <v>659</v>
+      </c>
+      <c r="G185" t="s">
+        <v>668</v>
+      </c>
+      <c r="H185" t="s">
+        <v>660</v>
+      </c>
+      <c r="I185" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>657</v>
+      </c>
+      <c r="B186" t="s">
+        <v>670</v>
+      </c>
+      <c r="C186" t="s">
+        <v>671</v>
+      </c>
+      <c r="D186" t="s">
+        <v>32</v>
+      </c>
+      <c r="E186" t="s">
+        <v>80</v>
+      </c>
+      <c r="F186" t="s">
+        <v>659</v>
+      </c>
+      <c r="G186" t="s">
+        <v>148</v>
+      </c>
+      <c r="H186" t="s">
+        <v>672</v>
+      </c>
+      <c r="I186" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>657</v>
+      </c>
+      <c r="B187" t="s">
+        <v>89</v>
+      </c>
+      <c r="C187" t="s">
+        <v>674</v>
+      </c>
+      <c r="D187" t="s">
+        <v>32</v>
+      </c>
+      <c r="E187" t="s">
+        <v>37</v>
+      </c>
+      <c r="F187" t="s">
+        <v>659</v>
+      </c>
+      <c r="G187" t="s">
+        <v>668</v>
+      </c>
+      <c r="H187" t="s">
+        <v>672</v>
+      </c>
+      <c r="I187" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>657</v>
+      </c>
+      <c r="B188" t="s">
+        <v>71</v>
+      </c>
+      <c r="C188" t="s">
+        <v>662</v>
+      </c>
+      <c r="D188" t="s">
+        <v>42</v>
+      </c>
+      <c r="E188" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s">
+        <v>659</v>
+      </c>
+      <c r="G188" t="s">
+        <v>668</v>
+      </c>
+      <c r="H188" t="s">
+        <v>660</v>
+      </c>
+      <c r="I188" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>657</v>
+      </c>
+      <c r="B189" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" t="s">
+        <v>677</v>
+      </c>
+      <c r="D189" t="s">
+        <v>42</v>
+      </c>
+      <c r="E189" t="s">
+        <v>21</v>
+      </c>
+      <c r="F189" t="s">
+        <v>678</v>
+      </c>
+      <c r="G189" t="s">
+        <v>679</v>
+      </c>
+      <c r="H189" t="s">
+        <v>680</v>
+      </c>
+      <c r="I189" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>657</v>
+      </c>
+      <c r="B190" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" t="s">
+        <v>682</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>21</v>
+      </c>
+      <c r="F190" t="s">
+        <v>678</v>
+      </c>
+      <c r="G190" t="s">
+        <v>679</v>
+      </c>
+      <c r="H190" t="s">
+        <v>680</v>
+      </c>
+      <c r="I190" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>657</v>
+      </c>
+      <c r="B191" t="s">
+        <v>138</v>
+      </c>
+      <c r="C191" t="s">
+        <v>684</v>
+      </c>
+      <c r="D191" t="s">
+        <v>42</v>
+      </c>
+      <c r="E191" t="s">
+        <v>566</v>
+      </c>
+      <c r="F191" t="s">
+        <v>685</v>
+      </c>
+      <c r="G191" t="s">
+        <v>109</v>
+      </c>
+      <c r="H191" t="s">
+        <v>686</v>
+      </c>
+      <c r="I191" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>657</v>
+      </c>
+      <c r="B192" t="s">
+        <v>30</v>
+      </c>
+      <c r="C192" t="s">
+        <v>688</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>465</v>
+      </c>
+      <c r="F192" t="s">
+        <v>685</v>
+      </c>
+      <c r="G192" t="s">
+        <v>109</v>
+      </c>
+      <c r="H192" t="s">
+        <v>686</v>
+      </c>
+      <c r="I192" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>690</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" t="s">
+        <v>691</v>
+      </c>
+      <c r="D193" t="s">
+        <v>42</v>
+      </c>
+      <c r="E193" t="s">
+        <v>465</v>
+      </c>
+      <c r="F193" t="s">
+        <v>692</v>
+      </c>
+      <c r="G193" t="s">
+        <v>169</v>
+      </c>
+      <c r="H193" t="s">
+        <v>693</v>
+      </c>
+      <c r="I193" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>690</v>
+      </c>
+      <c r="B194" t="s">
+        <v>99</v>
+      </c>
+      <c r="C194" t="s">
+        <v>695</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
+        <v>696</v>
+      </c>
+      <c r="G194" t="s">
+        <v>245</v>
+      </c>
+      <c r="H194" t="s">
+        <v>697</v>
+      </c>
+      <c r="I194" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>690</v>
+      </c>
+      <c r="B195" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195" t="s">
+        <v>699</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>696</v>
+      </c>
+      <c r="G195" t="s">
+        <v>245</v>
+      </c>
+      <c r="H195" t="s">
+        <v>700</v>
+      </c>
+      <c r="I195" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>690</v>
+      </c>
+      <c r="B196" t="s">
+        <v>138</v>
+      </c>
+      <c r="C196" t="s">
+        <v>702</v>
+      </c>
+      <c r="D196" t="s">
+        <v>42</v>
+      </c>
+      <c r="E196" t="s">
+        <v>465</v>
+      </c>
+      <c r="F196" t="s">
+        <v>696</v>
+      </c>
+      <c r="G196" t="s">
+        <v>148</v>
+      </c>
+      <c r="H196" t="s">
+        <v>703</v>
+      </c>
+      <c r="I196" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>690</v>
+      </c>
+      <c r="B197" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" t="s">
+        <v>705</v>
+      </c>
+      <c r="D197" t="s">
+        <v>646</v>
+      </c>
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s">
+        <v>706</v>
+      </c>
+      <c r="G197" t="s">
+        <v>668</v>
+      </c>
+      <c r="H197" t="s">
+        <v>707</v>
+      </c>
+      <c r="I197" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>690</v>
+      </c>
+      <c r="B198" t="s">
+        <v>35</v>
+      </c>
+      <c r="C198" t="s">
+        <v>709</v>
+      </c>
+      <c r="D198" t="s">
+        <v>646</v>
+      </c>
+      <c r="E198" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s">
+        <v>710</v>
+      </c>
+      <c r="G198" t="s">
+        <v>158</v>
+      </c>
+      <c r="H198" t="s">
+        <v>711</v>
+      </c>
+      <c r="I198" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>690</v>
+      </c>
+      <c r="B199" t="s">
+        <v>82</v>
+      </c>
+      <c r="C199" t="s">
+        <v>713</v>
+      </c>
+      <c r="D199" t="s">
+        <v>646</v>
+      </c>
+      <c r="E199" t="s">
+        <v>21</v>
+      </c>
+      <c r="F199" t="s">
+        <v>710</v>
+      </c>
+      <c r="G199" t="s">
+        <v>158</v>
+      </c>
+      <c r="H199" t="s">
+        <v>714</v>
+      </c>
+      <c r="I199" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>690</v>
+      </c>
+      <c r="B200" t="s">
+        <v>716</v>
+      </c>
+      <c r="C200" t="s">
+        <v>717</v>
+      </c>
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" t="s">
+        <v>718</v>
+      </c>
+      <c r="G200" t="s">
+        <v>158</v>
+      </c>
+      <c r="H200" t="s">
+        <v>719</v>
+      </c>
+      <c r="I200" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>690</v>
+      </c>
+      <c r="B201" t="s">
+        <v>483</v>
+      </c>
+      <c r="C201" t="s">
+        <v>721</v>
+      </c>
+      <c r="D201" t="s">
+        <v>646</v>
+      </c>
+      <c r="E201" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" t="s">
+        <v>722</v>
+      </c>
+      <c r="G201" t="s">
+        <v>23</v>
+      </c>
+      <c r="H201" t="s">
+        <v>723</v>
+      </c>
+      <c r="I201" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>690</v>
+      </c>
+      <c r="B202" t="s">
+        <v>82</v>
+      </c>
+      <c r="C202" t="s">
+        <v>725</v>
+      </c>
+      <c r="D202" t="s">
+        <v>646</v>
+      </c>
+      <c r="E202" t="s">
+        <v>59</v>
+      </c>
+      <c r="F202" t="s">
+        <v>722</v>
+      </c>
+      <c r="G202" t="s">
+        <v>23</v>
+      </c>
+      <c r="H202" t="s">
+        <v>726</v>
+      </c>
+      <c r="I202" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>690</v>
+      </c>
+      <c r="B203" t="s">
+        <v>728</v>
+      </c>
+      <c r="C203" t="s">
+        <v>729</v>
+      </c>
+      <c r="D203" t="s">
+        <v>42</v>
+      </c>
+      <c r="E203" t="s">
+        <v>21</v>
+      </c>
+      <c r="F203" t="s">
+        <v>730</v>
+      </c>
+      <c r="G203" t="s">
+        <v>731</v>
+      </c>
+      <c r="H203" t="s">
+        <v>732</v>
+      </c>
+      <c r="I203" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>690</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" t="s">
+        <v>734</v>
+      </c>
+      <c r="D204" t="s">
+        <v>42</v>
+      </c>
+      <c r="E204" t="s">
+        <v>21</v>
+      </c>
+      <c r="F204" t="s">
+        <v>730</v>
+      </c>
+      <c r="G204" t="s">
+        <v>731</v>
+      </c>
+      <c r="H204" t="s">
+        <v>735</v>
+      </c>
+      <c r="I204" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>690</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>737</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>21</v>
+      </c>
+      <c r="F205" t="s">
+        <v>730</v>
+      </c>
+      <c r="G205" t="s">
+        <v>731</v>
+      </c>
+      <c r="H205" t="s">
+        <v>738</v>
+      </c>
+      <c r="I205" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>690</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" t="s">
+        <v>740</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" t="s">
+        <v>21</v>
+      </c>
+      <c r="F206" t="s">
+        <v>730</v>
+      </c>
+      <c r="G206" t="s">
+        <v>731</v>
+      </c>
+      <c r="H206" t="s">
+        <v>741</v>
+      </c>
+      <c r="I206" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>690</v>
+      </c>
+      <c r="B207" t="s">
+        <v>138</v>
+      </c>
+      <c r="C207" t="s">
+        <v>743</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207" t="s">
+        <v>730</v>
+      </c>
+      <c r="G207" t="s">
+        <v>731</v>
+      </c>
+      <c r="H207" t="s">
+        <v>744</v>
+      </c>
+      <c r="I207" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>690</v>
+      </c>
+      <c r="B208" t="s">
+        <v>99</v>
+      </c>
+      <c r="C208" t="s">
+        <v>746</v>
+      </c>
+      <c r="D208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" t="s">
+        <v>21</v>
+      </c>
+      <c r="F208" t="s">
+        <v>730</v>
+      </c>
+      <c r="G208" t="s">
+        <v>731</v>
+      </c>
+      <c r="H208" t="s">
+        <v>747</v>
+      </c>
+      <c r="I208" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>749</v>
+      </c>
+      <c r="B209" t="s">
+        <v>297</v>
+      </c>
+      <c r="C209" t="s">
+        <v>750</v>
+      </c>
+      <c r="D209" t="s">
+        <v>42</v>
+      </c>
+      <c r="E209" t="s">
+        <v>21</v>
+      </c>
+      <c r="F209" t="s">
+        <v>751</v>
+      </c>
+      <c r="G209" t="s">
+        <v>502</v>
+      </c>
+      <c r="H209" t="s">
+        <v>752</v>
+      </c>
+      <c r="I209" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>749</v>
+      </c>
+      <c r="B210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" t="s">
+        <v>754</v>
+      </c>
+      <c r="D210" t="s">
+        <v>32</v>
+      </c>
+      <c r="E210" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" t="s">
+        <v>755</v>
+      </c>
+      <c r="G210" t="s">
+        <v>756</v>
+      </c>
+      <c r="H210" t="s">
+        <v>306</v>
+      </c>
+      <c r="I210" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>749</v>
+      </c>
+      <c r="B211" t="s">
+        <v>758</v>
+      </c>
+      <c r="C211" t="s">
+        <v>759</v>
+      </c>
+      <c r="D211" t="s">
+        <v>32</v>
+      </c>
+      <c r="E211" t="s">
+        <v>84</v>
+      </c>
+      <c r="F211" t="s">
+        <v>755</v>
+      </c>
+      <c r="G211" t="s">
+        <v>273</v>
+      </c>
+      <c r="H211" t="s">
+        <v>760</v>
+      </c>
+      <c r="I211" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>749</v>
+      </c>
+      <c r="B212" t="s">
+        <v>429</v>
+      </c>
+      <c r="C212" t="s">
+        <v>762</v>
+      </c>
+      <c r="D212" t="s">
+        <v>32</v>
+      </c>
+      <c r="E212" t="s">
+        <v>21</v>
+      </c>
+      <c r="F212" t="s">
+        <v>755</v>
+      </c>
+      <c r="G212" t="s">
+        <v>273</v>
+      </c>
+      <c r="H212" t="s">
+        <v>763</v>
+      </c>
+      <c r="I212" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>749</v>
+      </c>
+      <c r="B213" t="s">
+        <v>30</v>
+      </c>
+      <c r="C213" t="s">
+        <v>765</v>
+      </c>
+      <c r="D213" t="s">
+        <v>42</v>
+      </c>
+      <c r="E213" t="s">
+        <v>21</v>
+      </c>
+      <c r="F213" t="s">
+        <v>755</v>
+      </c>
+      <c r="G213" t="s">
+        <v>756</v>
+      </c>
+      <c r="H213" t="s">
+        <v>763</v>
+      </c>
+      <c r="I213" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>749</v>
+      </c>
+      <c r="B214" t="s">
+        <v>138</v>
+      </c>
+      <c r="C214" t="s">
+        <v>767</v>
+      </c>
+      <c r="D214" t="s">
+        <v>42</v>
+      </c>
+      <c r="E214" t="s">
+        <v>59</v>
+      </c>
+      <c r="F214" t="s">
+        <v>768</v>
+      </c>
+      <c r="G214" t="s">
+        <v>769</v>
+      </c>
+      <c r="H214" t="s">
+        <v>770</v>
+      </c>
+      <c r="I214" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>749</v>
+      </c>
+      <c r="B215" t="s">
+        <v>772</v>
+      </c>
+      <c r="C215" t="s">
+        <v>773</v>
+      </c>
+      <c r="D215" t="s">
+        <v>42</v>
+      </c>
+      <c r="E215" t="s">
+        <v>80</v>
+      </c>
+      <c r="F215" t="s">
+        <v>768</v>
+      </c>
+      <c r="G215" t="s">
+        <v>774</v>
+      </c>
+      <c r="H215" t="s">
+        <v>770</v>
+      </c>
+      <c r="I215" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>749</v>
+      </c>
+      <c r="B216" t="s">
+        <v>561</v>
+      </c>
+      <c r="C216" t="s">
+        <v>776</v>
+      </c>
+      <c r="D216" t="s">
+        <v>32</v>
+      </c>
+      <c r="E216" t="s">
+        <v>80</v>
+      </c>
+      <c r="F216" t="s">
+        <v>768</v>
+      </c>
+      <c r="G216" t="s">
+        <v>774</v>
+      </c>
+      <c r="H216" t="s">
+        <v>770</v>
+      </c>
+      <c r="I216" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>749</v>
+      </c>
+      <c r="B217" t="s">
+        <v>30</v>
+      </c>
+      <c r="C217" t="s">
+        <v>778</v>
+      </c>
+      <c r="D217" t="s">
+        <v>42</v>
+      </c>
+      <c r="E217" t="s">
+        <v>299</v>
+      </c>
+      <c r="F217" t="s">
+        <v>779</v>
+      </c>
+      <c r="G217" t="s">
+        <v>245</v>
+      </c>
+      <c r="H217" t="s">
+        <v>780</v>
+      </c>
+      <c r="I217" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>749</v>
+      </c>
+      <c r="B218" t="s">
+        <v>99</v>
+      </c>
+      <c r="C218" t="s">
+        <v>782</v>
+      </c>
+      <c r="D218" t="s">
+        <v>42</v>
+      </c>
+      <c r="E218" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" t="s">
+        <v>779</v>
+      </c>
+      <c r="G218" t="s">
+        <v>245</v>
+      </c>
+      <c r="H218" t="s">
+        <v>780</v>
+      </c>
+      <c r="I218" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>749</v>
+      </c>
+      <c r="B219" t="s">
+        <v>89</v>
+      </c>
+      <c r="C219" t="s">
+        <v>784</v>
+      </c>
+      <c r="D219" t="s">
+        <v>42</v>
+      </c>
+      <c r="E219" t="s">
+        <v>465</v>
+      </c>
+      <c r="F219" t="s">
+        <v>785</v>
+      </c>
+      <c r="G219" t="s">
+        <v>769</v>
+      </c>
+      <c r="H219" t="s">
+        <v>786</v>
+      </c>
+      <c r="I219" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>749</v>
+      </c>
+      <c r="B220" t="s">
+        <v>89</v>
+      </c>
+      <c r="C220" t="s">
+        <v>784</v>
+      </c>
+      <c r="D220" t="s">
+        <v>42</v>
+      </c>
+      <c r="E220" t="s">
+        <v>788</v>
+      </c>
+      <c r="F220" t="s">
+        <v>785</v>
+      </c>
+      <c r="G220" t="s">
+        <v>769</v>
+      </c>
+      <c r="H220" t="s">
+        <v>786</v>
+      </c>
+      <c r="I220" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>749</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
+      <c r="C221" t="s">
+        <v>790</v>
+      </c>
+      <c r="D221" t="s">
+        <v>791</v>
+      </c>
+      <c r="E221" t="s">
+        <v>792</v>
+      </c>
+      <c r="F221" t="s">
+        <v>785</v>
+      </c>
+      <c r="G221" t="s">
+        <v>769</v>
+      </c>
+      <c r="H221" t="s">
+        <v>793</v>
+      </c>
+      <c r="I221" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>749</v>
+      </c>
+      <c r="B222" t="s">
+        <v>138</v>
+      </c>
+      <c r="C222" t="s">
+        <v>795</v>
+      </c>
+      <c r="D222" t="s">
+        <v>42</v>
+      </c>
+      <c r="E222" t="s">
+        <v>299</v>
+      </c>
+      <c r="F222" t="s">
+        <v>785</v>
+      </c>
+      <c r="G222" t="s">
+        <v>769</v>
+      </c>
+      <c r="H222" t="s">
+        <v>786</v>
+      </c>
+      <c r="I222" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>797</v>
+      </c>
+      <c r="B223" t="s">
+        <v>26</v>
+      </c>
+      <c r="C223" t="s">
+        <v>798</v>
+      </c>
+      <c r="D223" t="s">
+        <v>165</v>
+      </c>
+      <c r="E223" t="s">
+        <v>299</v>
+      </c>
+      <c r="F223" t="s">
+        <v>799</v>
+      </c>
+      <c r="G223" t="s">
+        <v>273</v>
+      </c>
+      <c r="H223" t="s">
+        <v>800</v>
+      </c>
+      <c r="I223" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>797</v>
+      </c>
+      <c r="B224" t="s">
+        <v>30</v>
+      </c>
+      <c r="C224" t="s">
+        <v>802</v>
+      </c>
+      <c r="D224" t="s">
+        <v>461</v>
+      </c>
+      <c r="E224" t="s">
+        <v>21</v>
+      </c>
+      <c r="F224" t="s">
+        <v>799</v>
+      </c>
+      <c r="G224" t="s">
+        <v>273</v>
+      </c>
+      <c r="H224" t="s">
+        <v>803</v>
+      </c>
+      <c r="I224" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>797</v>
+      </c>
+      <c r="B225" t="s">
+        <v>805</v>
+      </c>
+      <c r="C225" t="s">
+        <v>806</v>
+      </c>
+      <c r="D225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225" t="s">
+        <v>59</v>
+      </c>
+      <c r="F225" t="s">
+        <v>799</v>
+      </c>
+      <c r="G225" t="s">
+        <v>15</v>
+      </c>
+      <c r="H225" t="s">
+        <v>807</v>
+      </c>
+      <c r="I225" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>797</v>
+      </c>
+      <c r="B226" t="s">
+        <v>483</v>
+      </c>
+      <c r="C226" t="s">
+        <v>809</v>
+      </c>
+      <c r="D226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" t="s">
+        <v>59</v>
+      </c>
+      <c r="F226" t="s">
+        <v>799</v>
+      </c>
+      <c r="G226" t="s">
+        <v>273</v>
+      </c>
+      <c r="H226" t="s">
+        <v>807</v>
+      </c>
+      <c r="I226" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>797</v>
+      </c>
+      <c r="B227" t="s">
+        <v>19</v>
+      </c>
+      <c r="C227" t="s">
+        <v>811</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227" t="s">
+        <v>299</v>
+      </c>
+      <c r="F227" t="s">
+        <v>799</v>
+      </c>
+      <c r="G227" t="s">
+        <v>273</v>
+      </c>
+      <c r="H227" t="s">
+        <v>812</v>
+      </c>
+      <c r="I227" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>797</v>
+      </c>
+      <c r="B228" t="s">
+        <v>814</v>
+      </c>
+      <c r="C228" t="s">
+        <v>815</v>
+      </c>
+      <c r="D228" t="s">
+        <v>32</v>
+      </c>
+      <c r="E228" t="s">
+        <v>13</v>
+      </c>
+      <c r="F228" t="s">
+        <v>799</v>
+      </c>
+      <c r="G228" t="s">
+        <v>273</v>
+      </c>
+      <c r="H228" t="s">
+        <v>816</v>
+      </c>
+      <c r="I228" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>797</v>
+      </c>
+      <c r="B229" t="s">
+        <v>539</v>
+      </c>
+      <c r="C229" t="s">
+        <v>818</v>
+      </c>
+      <c r="D229" t="s">
+        <v>32</v>
+      </c>
+      <c r="E229" t="s">
+        <v>80</v>
+      </c>
+      <c r="F229" t="s">
+        <v>799</v>
+      </c>
+      <c r="G229" t="s">
+        <v>273</v>
+      </c>
+      <c r="H229" t="s">
+        <v>803</v>
+      </c>
+      <c r="I229" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>797</v>
+      </c>
+      <c r="B230" t="s">
+        <v>328</v>
+      </c>
+      <c r="C230" t="s">
+        <v>820</v>
+      </c>
+      <c r="D230" t="s">
+        <v>32</v>
+      </c>
+      <c r="E230" t="s">
+        <v>59</v>
+      </c>
+      <c r="F230" t="s">
+        <v>799</v>
+      </c>
+      <c r="G230" t="s">
+        <v>273</v>
+      </c>
+      <c r="H230" t="s">
+        <v>821</v>
+      </c>
+      <c r="I230" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>797</v>
+      </c>
+      <c r="B231" t="s">
+        <v>805</v>
+      </c>
+      <c r="C231" t="s">
+        <v>823</v>
+      </c>
+      <c r="D231" t="s">
+        <v>42</v>
+      </c>
+      <c r="E231" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231" t="s">
+        <v>799</v>
+      </c>
+      <c r="G231" t="s">
+        <v>273</v>
+      </c>
+      <c r="H231" t="s">
+        <v>824</v>
+      </c>
+      <c r="I231" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>797</v>
+      </c>
+      <c r="B232" t="s">
+        <v>71</v>
+      </c>
+      <c r="C232" t="s">
+        <v>826</v>
+      </c>
+      <c r="D232" t="s">
+        <v>165</v>
+      </c>
+      <c r="E232" t="s">
+        <v>80</v>
+      </c>
+      <c r="F232" t="s">
+        <v>827</v>
+      </c>
+      <c r="G232" t="s">
+        <v>129</v>
+      </c>
+      <c r="H232" t="s">
+        <v>828</v>
+      </c>
+      <c r="I232" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>797</v>
+      </c>
+      <c r="B233" t="s">
+        <v>483</v>
+      </c>
+      <c r="C233" t="s">
+        <v>830</v>
+      </c>
+      <c r="D233" t="s">
+        <v>42</v>
+      </c>
+      <c r="E233" t="s">
+        <v>59</v>
+      </c>
+      <c r="F233" t="s">
+        <v>827</v>
+      </c>
+      <c r="G233" t="s">
+        <v>129</v>
+      </c>
+      <c r="H233" t="s">
+        <v>831</v>
+      </c>
+      <c r="I233" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>797</v>
+      </c>
+      <c r="B234" t="s">
+        <v>138</v>
+      </c>
+      <c r="C234" t="s">
+        <v>833</v>
+      </c>
+      <c r="D234" t="s">
+        <v>165</v>
+      </c>
+      <c r="E234" t="s">
+        <v>21</v>
+      </c>
+      <c r="F234" t="s">
+        <v>827</v>
+      </c>
+      <c r="G234" t="s">
+        <v>129</v>
+      </c>
+      <c r="H234" t="s">
+        <v>834</v>
+      </c>
+      <c r="I234" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>797</v>
+      </c>
+      <c r="B235" t="s">
+        <v>429</v>
+      </c>
+      <c r="C235" t="s">
+        <v>836</v>
+      </c>
+      <c r="D235" t="s">
+        <v>32</v>
+      </c>
+      <c r="E235" t="s">
+        <v>465</v>
+      </c>
+      <c r="F235" t="s">
+        <v>827</v>
+      </c>
+      <c r="G235" t="s">
+        <v>129</v>
+      </c>
+      <c r="H235" t="s">
+        <v>837</v>
+      </c>
+      <c r="I235" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>797</v>
+      </c>
+      <c r="B236" t="s">
+        <v>40</v>
+      </c>
+      <c r="C236" t="s">
+        <v>839</v>
+      </c>
+      <c r="D236" t="s">
+        <v>32</v>
+      </c>
+      <c r="E236" t="s">
+        <v>80</v>
+      </c>
+      <c r="F236" t="s">
+        <v>840</v>
+      </c>
+      <c r="G236" t="s">
+        <v>668</v>
+      </c>
+      <c r="H236" t="s">
+        <v>841</v>
+      </c>
+      <c r="I236" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>797</v>
+      </c>
+      <c r="B237" t="s">
+        <v>328</v>
+      </c>
+      <c r="C237" t="s">
+        <v>843</v>
+      </c>
+      <c r="D237" t="s">
+        <v>165</v>
+      </c>
+      <c r="E237" t="s">
+        <v>59</v>
+      </c>
+      <c r="F237" t="s">
+        <v>840</v>
+      </c>
+      <c r="G237" t="s">
+        <v>668</v>
+      </c>
+      <c r="H237" t="s">
+        <v>841</v>
+      </c>
+      <c r="I237" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>797</v>
+      </c>
+      <c r="B238" t="s">
+        <v>805</v>
+      </c>
+      <c r="C238" t="s">
+        <v>845</v>
+      </c>
+      <c r="D238" t="s">
+        <v>42</v>
+      </c>
+      <c r="E238" t="s">
+        <v>37</v>
+      </c>
+      <c r="F238" t="s">
+        <v>840</v>
+      </c>
+      <c r="G238" t="s">
+        <v>668</v>
+      </c>
+      <c r="H238" t="s">
+        <v>841</v>
+      </c>
+      <c r="I238" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>797</v>
+      </c>
+      <c r="B239" t="s">
+        <v>716</v>
+      </c>
+      <c r="C239" t="s">
+        <v>847</v>
+      </c>
+      <c r="D239" t="s">
+        <v>32</v>
+      </c>
+      <c r="E239" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" t="s">
+        <v>840</v>
+      </c>
+      <c r="G239" t="s">
+        <v>668</v>
+      </c>
+      <c r="H239" t="s">
+        <v>848</v>
+      </c>
+      <c r="I239" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>797</v>
+      </c>
+      <c r="B240" t="s">
+        <v>89</v>
+      </c>
+      <c r="C240" t="s">
+        <v>850</v>
+      </c>
+      <c r="D240" t="s">
+        <v>165</v>
+      </c>
+      <c r="E240" t="s">
+        <v>59</v>
+      </c>
+      <c r="F240" t="s">
+        <v>840</v>
+      </c>
+      <c r="G240" t="s">
+        <v>668</v>
+      </c>
+      <c r="H240" t="s">
+        <v>848</v>
+      </c>
+      <c r="I240" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>797</v>
+      </c>
+      <c r="B241" t="s">
+        <v>45</v>
+      </c>
+      <c r="C241" t="s">
+        <v>852</v>
+      </c>
+      <c r="D241" t="s">
+        <v>32</v>
+      </c>
+      <c r="E241" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" t="s">
+        <v>840</v>
+      </c>
+      <c r="G241" t="s">
+        <v>668</v>
+      </c>
+      <c r="H241" t="s">
+        <v>848</v>
+      </c>
+      <c r="I241" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>797</v>
+      </c>
+      <c r="B242" t="s">
+        <v>151</v>
+      </c>
+      <c r="C242" t="s">
+        <v>854</v>
+      </c>
+      <c r="D242" t="s">
+        <v>32</v>
+      </c>
+      <c r="E242" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242" t="s">
+        <v>840</v>
+      </c>
+      <c r="G242" t="s">
+        <v>668</v>
+      </c>
+      <c r="H242" t="s">
+        <v>841</v>
+      </c>
+      <c r="I242" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>797</v>
+      </c>
+      <c r="B243" t="s">
+        <v>180</v>
+      </c>
+      <c r="C243" t="s">
+        <v>856</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s">
+        <v>13</v>
+      </c>
+      <c r="F243" t="s">
+        <v>840</v>
+      </c>
+      <c r="G243" t="s">
+        <v>668</v>
+      </c>
+      <c r="H243" t="s">
+        <v>841</v>
+      </c>
+      <c r="I243" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
+        <v>797</v>
+      </c>
+      <c r="B244" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" t="s">
+        <v>858</v>
+      </c>
+      <c r="D244" t="s">
+        <v>32</v>
+      </c>
+      <c r="E244" t="s">
+        <v>37</v>
+      </c>
+      <c r="F244" t="s">
+        <v>859</v>
+      </c>
+      <c r="G244" t="s">
+        <v>109</v>
+      </c>
+      <c r="H244" t="s">
+        <v>860</v>
+      </c>
+      <c r="I244" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" t="s">
+        <v>797</v>
+      </c>
+      <c r="B245" t="s">
+        <v>126</v>
+      </c>
+      <c r="C245" t="s">
+        <v>862</v>
+      </c>
+      <c r="D245" t="s">
+        <v>42</v>
+      </c>
+      <c r="E245" t="s">
+        <v>59</v>
+      </c>
+      <c r="F245" t="s">
+        <v>859</v>
+      </c>
+      <c r="G245" t="s">
+        <v>109</v>
+      </c>
+      <c r="H245" t="s">
+        <v>863</v>
+      </c>
+      <c r="I245" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
+        <v>797</v>
+      </c>
+      <c r="B246" t="s">
+        <v>19</v>
+      </c>
+      <c r="C246" t="s">
+        <v>858</v>
+      </c>
+      <c r="D246" t="s">
+        <v>165</v>
+      </c>
+      <c r="E246" t="s">
+        <v>299</v>
+      </c>
+      <c r="F246" t="s">
+        <v>859</v>
+      </c>
+      <c r="G246" t="s">
+        <v>109</v>
+      </c>
+      <c r="H246" t="s">
+        <v>860</v>
+      </c>
+      <c r="I246" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>797</v>
+      </c>
+      <c r="B247" t="s">
+        <v>82</v>
+      </c>
+      <c r="C247" t="s">
+        <v>866</v>
+      </c>
+      <c r="D247" t="s">
+        <v>42</v>
+      </c>
+      <c r="E247" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s">
+        <v>867</v>
+      </c>
+      <c r="G247" t="s">
+        <v>158</v>
+      </c>
+      <c r="H247" t="s">
+        <v>868</v>
+      </c>
+      <c r="I247" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>797</v>
+      </c>
+      <c r="B248" t="s">
+        <v>805</v>
+      </c>
+      <c r="C248" t="s">
+        <v>870</v>
+      </c>
+      <c r="D248" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s">
+        <v>867</v>
+      </c>
+      <c r="G248" t="s">
+        <v>158</v>
+      </c>
+      <c r="H248" t="s">
+        <v>871</v>
+      </c>
+      <c r="I248" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>797</v>
+      </c>
+      <c r="B249" t="s">
+        <v>805</v>
+      </c>
+      <c r="C249" t="s">
+        <v>873</v>
+      </c>
+      <c r="D249" t="s">
+        <v>42</v>
+      </c>
+      <c r="E249" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249" t="s">
+        <v>867</v>
+      </c>
+      <c r="G249" t="s">
+        <v>158</v>
+      </c>
+      <c r="H249" t="s">
+        <v>868</v>
+      </c>
+      <c r="I249" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>797</v>
+      </c>
+      <c r="B250" t="s">
+        <v>287</v>
+      </c>
+      <c r="C250" t="s">
+        <v>875</v>
+      </c>
+      <c r="D250" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" t="s">
+        <v>867</v>
+      </c>
+      <c r="G250" t="s">
+        <v>158</v>
+      </c>
+      <c r="H250" t="s">
+        <v>868</v>
+      </c>
+      <c r="I250" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>797</v>
+      </c>
+      <c r="B251" t="s">
+        <v>26</v>
+      </c>
+      <c r="C251" t="s">
+        <v>877</v>
+      </c>
+      <c r="D251" t="s">
+        <v>42</v>
+      </c>
+      <c r="E251" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s">
+        <v>867</v>
+      </c>
+      <c r="G251" t="s">
+        <v>158</v>
+      </c>
+      <c r="H251" t="s">
+        <v>868</v>
+      </c>
+      <c r="I251" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="s">
+        <v>797</v>
+      </c>
+      <c r="B252" t="s">
+        <v>82</v>
+      </c>
+      <c r="C252" t="s">
+        <v>866</v>
+      </c>
+      <c r="D252" t="s">
+        <v>42</v>
+      </c>
+      <c r="E252" t="s">
+        <v>37</v>
+      </c>
+      <c r="F252" t="s">
+        <v>867</v>
+      </c>
+      <c r="G252" t="s">
+        <v>158</v>
+      </c>
+      <c r="H252" t="s">
+        <v>868</v>
+      </c>
+      <c r="I252" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>797</v>
+      </c>
+      <c r="B253" t="s">
+        <v>82</v>
+      </c>
+      <c r="C253" t="s">
+        <v>880</v>
+      </c>
+      <c r="D253" t="s">
+        <v>42</v>
+      </c>
+      <c r="E253" t="s">
+        <v>59</v>
+      </c>
+      <c r="F253" t="s">
+        <v>881</v>
+      </c>
+      <c r="G253" t="s">
+        <v>206</v>
+      </c>
+      <c r="H253" t="s">
+        <v>882</v>
+      </c>
+      <c r="I253" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="s">
+        <v>797</v>
+      </c>
+      <c r="B254" t="s">
+        <v>82</v>
+      </c>
+      <c r="C254" t="s">
+        <v>884</v>
+      </c>
+      <c r="D254" t="s">
+        <v>42</v>
+      </c>
+      <c r="E254" t="s">
+        <v>21</v>
+      </c>
+      <c r="F254" t="s">
+        <v>881</v>
+      </c>
+      <c r="G254" t="s">
+        <v>23</v>
+      </c>
+      <c r="H254" t="s">
+        <v>885</v>
+      </c>
+      <c r="I254" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>797</v>
+      </c>
+      <c r="B255" t="s">
+        <v>82</v>
+      </c>
+      <c r="C255" t="s">
+        <v>887</v>
+      </c>
+      <c r="D255" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" t="s">
+        <v>566</v>
+      </c>
+      <c r="F255" t="s">
+        <v>888</v>
+      </c>
+      <c r="G255" t="s">
+        <v>169</v>
+      </c>
+      <c r="H255" t="s">
+        <v>889</v>
+      </c>
+      <c r="I255" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>797</v>
+      </c>
+      <c r="B256" t="s">
+        <v>19</v>
+      </c>
+      <c r="C256" t="s">
+        <v>891</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" t="s">
+        <v>59</v>
+      </c>
+      <c r="F256" t="s">
+        <v>888</v>
+      </c>
+      <c r="G256" t="s">
+        <v>169</v>
+      </c>
+      <c r="H256" t="s">
+        <v>892</v>
+      </c>
+      <c r="I256" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" t="s">
+        <v>797</v>
+      </c>
+      <c r="B257" t="s">
+        <v>447</v>
+      </c>
+      <c r="C257" t="s">
+        <v>894</v>
+      </c>
+      <c r="D257" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" t="s">
+        <v>566</v>
+      </c>
+      <c r="F257" t="s">
+        <v>888</v>
+      </c>
+      <c r="G257" t="s">
+        <v>169</v>
+      </c>
+      <c r="H257" t="s">
+        <v>889</v>
+      </c>
+      <c r="I257" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" t="s">
+        <v>797</v>
+      </c>
+      <c r="B258" t="s">
+        <v>325</v>
+      </c>
+      <c r="C258" t="s">
+        <v>896</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" t="s">
+        <v>566</v>
+      </c>
+      <c r="F258" t="s">
+        <v>888</v>
+      </c>
+      <c r="G258" t="s">
+        <v>169</v>
+      </c>
+      <c r="H258" t="s">
+        <v>889</v>
+      </c>
+      <c r="I258" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" t="s">
+        <v>797</v>
+      </c>
+      <c r="B259" t="s">
+        <v>82</v>
+      </c>
+      <c r="C259" t="s">
+        <v>898</v>
+      </c>
+      <c r="D259" t="s">
+        <v>42</v>
+      </c>
+      <c r="E259" t="s">
+        <v>13</v>
+      </c>
+      <c r="F259" t="s">
+        <v>899</v>
+      </c>
+      <c r="G259" t="s">
+        <v>221</v>
+      </c>
+      <c r="H259" t="s">
+        <v>900</v>
+      </c>
+      <c r="I259" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" t="s">
+        <v>797</v>
+      </c>
+      <c r="B260" t="s">
+        <v>57</v>
+      </c>
+      <c r="C260" t="s">
+        <v>902</v>
+      </c>
+      <c r="D260" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" t="s">
+        <v>21</v>
+      </c>
+      <c r="F260" t="s">
+        <v>899</v>
+      </c>
+      <c r="G260" t="s">
+        <v>221</v>
+      </c>
+      <c r="H260" t="s">
+        <v>900</v>
+      </c>
+      <c r="I260" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" t="s">
+        <v>797</v>
+      </c>
+      <c r="B261" t="s">
+        <v>19</v>
+      </c>
+      <c r="C261" t="s">
+        <v>904</v>
+      </c>
+      <c r="D261" t="s">
+        <v>42</v>
+      </c>
+      <c r="E261" t="s">
+        <v>13</v>
+      </c>
+      <c r="F261" t="s">
+        <v>905</v>
+      </c>
+      <c r="G261" t="s">
+        <v>129</v>
+      </c>
+      <c r="H261" t="s">
+        <v>906</v>
+      </c>
+      <c r="I261" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" t="s">
+        <v>797</v>
+      </c>
+      <c r="B262" t="s">
+        <v>19</v>
+      </c>
+      <c r="C262" t="s">
+        <v>908</v>
+      </c>
+      <c r="D262" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s">
+        <v>905</v>
+      </c>
+      <c r="G262" t="s">
+        <v>129</v>
+      </c>
+      <c r="H262" t="s">
+        <v>909</v>
+      </c>
+      <c r="I262" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" t="s">
+        <v>797</v>
+      </c>
+      <c r="B263" t="s">
+        <v>99</v>
+      </c>
+      <c r="C263" t="s">
+        <v>911</v>
+      </c>
+      <c r="D263" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263" t="s">
+        <v>566</v>
+      </c>
+      <c r="F263" t="s">
+        <v>905</v>
+      </c>
+      <c r="G263" t="s">
+        <v>129</v>
+      </c>
+      <c r="H263" t="s">
+        <v>665</v>
+      </c>
+      <c r="I263" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" t="s">
+        <v>797</v>
+      </c>
+      <c r="B264" t="s">
+        <v>805</v>
+      </c>
+      <c r="C264" t="s">
+        <v>913</v>
+      </c>
+      <c r="D264" t="s">
+        <v>42</v>
+      </c>
+      <c r="E264" t="s">
+        <v>84</v>
+      </c>
+      <c r="F264" t="s">
+        <v>914</v>
+      </c>
+      <c r="G264" t="s">
+        <v>426</v>
+      </c>
+      <c r="H264" t="s">
+        <v>915</v>
+      </c>
+      <c r="I264" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" t="s">
+        <v>797</v>
+      </c>
+      <c r="B265" t="s">
+        <v>917</v>
+      </c>
+      <c r="C265" t="s">
+        <v>918</v>
+      </c>
+      <c r="D265" t="s">
+        <v>42</v>
+      </c>
+      <c r="E265" t="s">
+        <v>21</v>
+      </c>
+      <c r="F265" t="s">
+        <v>914</v>
+      </c>
+      <c r="G265" t="s">
+        <v>426</v>
+      </c>
+      <c r="H265" t="s">
+        <v>915</v>
+      </c>
+      <c r="I265" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" t="s">
+        <v>797</v>
+      </c>
+      <c r="B266" t="s">
+        <v>35</v>
+      </c>
+      <c r="C266" t="s">
+        <v>920</v>
+      </c>
+      <c r="D266" t="s">
+        <v>165</v>
+      </c>
+      <c r="E266" t="s">
+        <v>566</v>
+      </c>
+      <c r="F266" t="s">
+        <v>921</v>
+      </c>
+      <c r="G266" t="s">
+        <v>119</v>
+      </c>
+      <c r="H266" t="s">
+        <v>922</v>
+      </c>
+      <c r="I266" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" t="s">
+        <v>924</v>
+      </c>
+      <c r="B267" t="s">
+        <v>30</v>
+      </c>
+      <c r="C267" t="s">
+        <v>925</v>
+      </c>
+      <c r="D267" t="s">
+        <v>461</v>
+      </c>
+      <c r="E267" t="s">
+        <v>13</v>
+      </c>
+      <c r="F267" t="s">
+        <v>926</v>
+      </c>
+      <c r="G267" t="s">
+        <v>927</v>
+      </c>
+      <c r="H267" t="s">
+        <v>928</v>
+      </c>
+      <c r="I267" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" t="s">
+        <v>924</v>
+      </c>
+      <c r="B268" t="s">
+        <v>30</v>
+      </c>
+      <c r="C268" t="s">
+        <v>930</v>
+      </c>
+      <c r="D268" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" t="s">
+        <v>21</v>
+      </c>
+      <c r="F268" t="s">
+        <v>931</v>
+      </c>
+      <c r="G268" t="s">
+        <v>932</v>
+      </c>
+      <c r="H268" t="s">
+        <v>933</v>
+      </c>
+      <c r="I268" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" t="s">
+        <v>924</v>
+      </c>
+      <c r="B269" t="s">
+        <v>30</v>
+      </c>
+      <c r="C269" t="s">
+        <v>935</v>
+      </c>
+      <c r="D269" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" t="s">
+        <v>465</v>
+      </c>
+      <c r="F269" t="s">
+        <v>936</v>
+      </c>
+      <c r="G269" t="s">
+        <v>206</v>
+      </c>
+      <c r="H269" t="s">
+        <v>937</v>
+      </c>
+      <c r="I269" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" t="s">
+        <v>924</v>
+      </c>
+      <c r="B270" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270" t="s">
+        <v>939</v>
+      </c>
+      <c r="D270" t="s">
+        <v>32</v>
+      </c>
+      <c r="E270" t="s">
+        <v>465</v>
+      </c>
+      <c r="F270" t="s">
+        <v>936</v>
+      </c>
+      <c r="G270" t="s">
+        <v>206</v>
+      </c>
+      <c r="H270" t="s">
+        <v>940</v>
+      </c>
+      <c r="I270" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" t="s">
+        <v>924</v>
+      </c>
+      <c r="B271" t="s">
+        <v>375</v>
+      </c>
+      <c r="C271" t="s">
+        <v>942</v>
+      </c>
+      <c r="D271" t="s">
+        <v>32</v>
+      </c>
+      <c r="E271" t="s">
+        <v>21</v>
+      </c>
+      <c r="F271" t="s">
+        <v>936</v>
+      </c>
+      <c r="G271" t="s">
+        <v>206</v>
+      </c>
+      <c r="H271" t="s">
+        <v>943</v>
+      </c>
+      <c r="I271" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" t="s">
+        <v>924</v>
+      </c>
+      <c r="B272" t="s">
+        <v>30</v>
+      </c>
+      <c r="C272" t="s">
+        <v>945</v>
+      </c>
+      <c r="D272" t="s">
+        <v>646</v>
+      </c>
+      <c r="E272" t="s">
+        <v>21</v>
+      </c>
+      <c r="F272" t="s">
+        <v>946</v>
+      </c>
+      <c r="G272" t="s">
+        <v>947</v>
+      </c>
+      <c r="H272" t="s">
+        <v>948</v>
+      </c>
+      <c r="I272" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" t="s">
+        <v>950</v>
+      </c>
+      <c r="B273" t="s">
+        <v>99</v>
+      </c>
+      <c r="C273" t="s">
+        <v>951</v>
+      </c>
+      <c r="D273" t="s">
+        <v>165</v>
+      </c>
+      <c r="E273" t="s">
+        <v>59</v>
+      </c>
+      <c r="F273" t="s">
+        <v>952</v>
+      </c>
+      <c r="G273" t="s">
+        <v>148</v>
+      </c>
+      <c r="H273" t="s">
+        <v>953</v>
+      </c>
+      <c r="I273" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" t="s">
+        <v>950</v>
+      </c>
+      <c r="B274" t="s">
+        <v>71</v>
+      </c>
+      <c r="C274" t="s">
+        <v>955</v>
+      </c>
+      <c r="D274" t="s">
+        <v>32</v>
+      </c>
+      <c r="E274" t="s">
+        <v>21</v>
+      </c>
+      <c r="F274" t="s">
+        <v>952</v>
+      </c>
+      <c r="G274" t="s">
+        <v>148</v>
+      </c>
+      <c r="H274" t="s">
+        <v>953</v>
+      </c>
+      <c r="I274" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" t="s">
+        <v>950</v>
+      </c>
+      <c r="B275" t="s">
+        <v>483</v>
+      </c>
+      <c r="C275" t="s">
+        <v>957</v>
+      </c>
+      <c r="D275" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" t="s">
+        <v>59</v>
+      </c>
+      <c r="F275" t="s">
+        <v>952</v>
+      </c>
+      <c r="G275" t="s">
+        <v>148</v>
+      </c>
+      <c r="H275" t="s">
+        <v>958</v>
+      </c>
+      <c r="I275" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" t="s">
+        <v>950</v>
+      </c>
+      <c r="B276" t="s">
+        <v>99</v>
+      </c>
+      <c r="C276" t="s">
+        <v>951</v>
+      </c>
+      <c r="D276" t="s">
+        <v>461</v>
+      </c>
+      <c r="E276" t="s">
+        <v>59</v>
+      </c>
+      <c r="F276" t="s">
+        <v>952</v>
+      </c>
+      <c r="G276" t="s">
+        <v>148</v>
+      </c>
+      <c r="H276" t="s">
+        <v>953</v>
+      </c>
+      <c r="I276" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" t="s">
+        <v>950</v>
+      </c>
+      <c r="B277" t="s">
+        <v>325</v>
+      </c>
+      <c r="C277" t="s">
+        <v>961</v>
+      </c>
+      <c r="D277" t="s">
+        <v>165</v>
+      </c>
+      <c r="E277" t="s">
+        <v>59</v>
+      </c>
+      <c r="F277" t="s">
+        <v>952</v>
+      </c>
+      <c r="G277" t="s">
+        <v>148</v>
+      </c>
+      <c r="H277" t="s">
+        <v>953</v>
+      </c>
+      <c r="I277" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" t="s">
+        <v>950</v>
+      </c>
+      <c r="B278" t="s">
+        <v>19</v>
+      </c>
+      <c r="C278" t="s">
+        <v>963</v>
+      </c>
+      <c r="D278" t="s">
+        <v>165</v>
+      </c>
+      <c r="E278" t="s">
+        <v>465</v>
+      </c>
+      <c r="F278" t="s">
+        <v>952</v>
+      </c>
+      <c r="G278" t="s">
+        <v>148</v>
+      </c>
+      <c r="H278" t="s">
+        <v>953</v>
+      </c>
+      <c r="I278" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" t="s">
+        <v>950</v>
+      </c>
+      <c r="B279" t="s">
+        <v>99</v>
+      </c>
+      <c r="C279" t="s">
+        <v>965</v>
+      </c>
+      <c r="D279" t="s">
+        <v>32</v>
+      </c>
+      <c r="E279" t="s">
+        <v>792</v>
+      </c>
+      <c r="F279" t="s">
+        <v>952</v>
+      </c>
+      <c r="G279" t="s">
+        <v>148</v>
+      </c>
+      <c r="H279" t="s">
+        <v>966</v>
+      </c>
+      <c r="I279" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" t="s">
+        <v>950</v>
+      </c>
+      <c r="B280" t="s">
+        <v>19</v>
+      </c>
+      <c r="C280" t="s">
+        <v>963</v>
+      </c>
+      <c r="D280" t="s">
+        <v>32</v>
+      </c>
+      <c r="E280" t="s">
+        <v>59</v>
+      </c>
+      <c r="F280" t="s">
+        <v>952</v>
+      </c>
+      <c r="G280" t="s">
+        <v>148</v>
+      </c>
+      <c r="H280" t="s">
+        <v>953</v>
+      </c>
+      <c r="I280" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" t="s">
+        <v>950</v>
+      </c>
+      <c r="B281" t="s">
+        <v>71</v>
+      </c>
+      <c r="C281" t="s">
+        <v>955</v>
+      </c>
+      <c r="D281" t="s">
+        <v>165</v>
+      </c>
+      <c r="E281" t="s">
+        <v>59</v>
+      </c>
+      <c r="F281" t="s">
+        <v>952</v>
+      </c>
+      <c r="G281" t="s">
+        <v>148</v>
+      </c>
+      <c r="H281" t="s">
+        <v>953</v>
+      </c>
+      <c r="I281" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" t="s">
+        <v>950</v>
+      </c>
+      <c r="B282" t="s">
+        <v>201</v>
+      </c>
+      <c r="C282" t="s">
+        <v>970</v>
+      </c>
+      <c r="D282" t="s">
+        <v>165</v>
+      </c>
+      <c r="E282" t="s">
+        <v>399</v>
+      </c>
+      <c r="F282" t="s">
+        <v>971</v>
+      </c>
+      <c r="G282" t="s">
+        <v>169</v>
+      </c>
+      <c r="H282" t="s">
+        <v>972</v>
+      </c>
+      <c r="I282" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" t="s">
+        <v>974</v>
+      </c>
+      <c r="B283" t="s">
+        <v>325</v>
+      </c>
+      <c r="C283" t="s">
+        <v>975</v>
+      </c>
+      <c r="D283" t="s">
+        <v>165</v>
+      </c>
+      <c r="E283" t="s">
+        <v>566</v>
+      </c>
+      <c r="F283" t="s">
+        <v>976</v>
+      </c>
+      <c r="G283" t="s">
+        <v>109</v>
+      </c>
+      <c r="H283" t="s">
+        <v>977</v>
+      </c>
+      <c r="I283" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" t="s">
+        <v>974</v>
+      </c>
+      <c r="B284" t="s">
+        <v>30</v>
+      </c>
+      <c r="C284" t="s">
+        <v>979</v>
+      </c>
+      <c r="D284" t="s">
+        <v>165</v>
+      </c>
+      <c r="E284" t="s">
+        <v>59</v>
+      </c>
+      <c r="F284" t="s">
+        <v>976</v>
+      </c>
+      <c r="G284" t="s">
+        <v>109</v>
+      </c>
+      <c r="H284" t="s">
+        <v>977</v>
+      </c>
+      <c r="I284" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" t="s">
+        <v>974</v>
+      </c>
+      <c r="B285" t="s">
+        <v>19</v>
+      </c>
+      <c r="C285" t="s">
+        <v>981</v>
+      </c>
+      <c r="D285" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" t="s">
+        <v>465</v>
+      </c>
+      <c r="F285" t="s">
+        <v>982</v>
+      </c>
+      <c r="G285" t="s">
+        <v>169</v>
+      </c>
+      <c r="H285" t="s">
+        <v>983</v>
+      </c>
+      <c r="I285" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" t="s">
+        <v>974</v>
+      </c>
+      <c r="B286" t="s">
+        <v>201</v>
+      </c>
+      <c r="C286" t="s">
+        <v>985</v>
+      </c>
+      <c r="D286" t="s">
+        <v>12</v>
+      </c>
+      <c r="E286" t="s">
+        <v>465</v>
+      </c>
+      <c r="F286" t="s">
+        <v>982</v>
+      </c>
+      <c r="G286" t="s">
+        <v>129</v>
+      </c>
+      <c r="H286" t="s">
+        <v>983</v>
+      </c>
+      <c r="I286" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" t="s">
+        <v>974</v>
+      </c>
+      <c r="B287" t="s">
+        <v>138</v>
+      </c>
+      <c r="C287" t="s">
+        <v>987</v>
+      </c>
+      <c r="D287" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287" t="s">
+        <v>59</v>
+      </c>
+      <c r="F287" t="s">
+        <v>982</v>
+      </c>
+      <c r="G287" t="s">
+        <v>129</v>
+      </c>
+      <c r="H287" t="s">
+        <v>988</v>
+      </c>
+      <c r="I287" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" t="s">
+        <v>974</v>
+      </c>
+      <c r="B288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C288" t="s">
+        <v>981</v>
+      </c>
+      <c r="D288" t="s">
+        <v>42</v>
+      </c>
+      <c r="E288" t="s">
+        <v>465</v>
+      </c>
+      <c r="F288" t="s">
+        <v>982</v>
+      </c>
+      <c r="G288" t="s">
+        <v>129</v>
+      </c>
+      <c r="H288" t="s">
+        <v>983</v>
+      </c>
+      <c r="I288" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" t="s">
+        <v>974</v>
+      </c>
+      <c r="B289" t="s">
+        <v>71</v>
+      </c>
+      <c r="C289" t="s">
+        <v>991</v>
+      </c>
+      <c r="D289" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289" t="s">
+        <v>59</v>
+      </c>
+      <c r="F289" t="s">
+        <v>992</v>
+      </c>
+      <c r="G289" t="s">
+        <v>23</v>
+      </c>
+      <c r="H289" t="s">
+        <v>993</v>
+      </c>
+      <c r="I289" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" t="s">
+        <v>974</v>
+      </c>
+      <c r="B290" t="s">
+        <v>561</v>
+      </c>
+      <c r="C290" t="s">
+        <v>995</v>
+      </c>
+      <c r="D290" t="s">
+        <v>165</v>
+      </c>
+      <c r="E290" t="s">
+        <v>59</v>
+      </c>
+      <c r="F290" t="s">
+        <v>992</v>
+      </c>
+      <c r="G290" t="s">
+        <v>23</v>
+      </c>
+      <c r="H290" t="s">
+        <v>996</v>
+      </c>
+      <c r="I290" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" t="s">
+        <v>974</v>
+      </c>
+      <c r="B291" t="s">
+        <v>82</v>
+      </c>
+      <c r="C291" t="s">
+        <v>998</v>
+      </c>
+      <c r="D291" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" t="s">
+        <v>299</v>
+      </c>
+      <c r="F291" t="s">
+        <v>992</v>
+      </c>
+      <c r="G291" t="s">
+        <v>23</v>
+      </c>
+      <c r="H291" t="s">
+        <v>999</v>
+      </c>
+      <c r="I291" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" t="s">
+        <v>974</v>
+      </c>
+      <c r="B292" t="s">
+        <v>35</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D292" t="s">
+        <v>12</v>
+      </c>
+      <c r="E292" t="s">
+        <v>80</v>
+      </c>
+      <c r="F292" t="s">
+        <v>992</v>
+      </c>
+      <c r="G292" t="s">
+        <v>23</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I292" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" t="s">
+        <v>974</v>
+      </c>
+      <c r="B293" t="s">
+        <v>325</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D293" t="s">
+        <v>12</v>
+      </c>
+      <c r="E293" t="s">
+        <v>80</v>
+      </c>
+      <c r="F293" t="s">
+        <v>992</v>
+      </c>
+      <c r="G293" t="s">
+        <v>23</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I293" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" t="s">
+        <v>974</v>
+      </c>
+      <c r="B294" t="s">
+        <v>35</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D294" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294" t="s">
+        <v>59</v>
+      </c>
+      <c r="F294" t="s">
+        <v>992</v>
+      </c>
+      <c r="G294" t="s">
+        <v>23</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I294" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" t="s">
+        <v>974</v>
+      </c>
+      <c r="B295" t="s">
+        <v>57</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D295" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" t="s">
+        <v>13</v>
+      </c>
+      <c r="F295" t="s">
+        <v>992</v>
+      </c>
+      <c r="G295" t="s">
+        <v>23</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I295" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" t="s">
+        <v>974</v>
+      </c>
+      <c r="B296" t="s">
+        <v>483</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D296" t="s">
+        <v>42</v>
+      </c>
+      <c r="E296" t="s">
+        <v>37</v>
+      </c>
+      <c r="F296" t="s">
+        <v>992</v>
+      </c>
+      <c r="G296" t="s">
+        <v>23</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I296" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" t="s">
+        <v>974</v>
+      </c>
+      <c r="B297" t="s">
+        <v>82</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D297" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" t="s">
+        <v>59</v>
+      </c>
+      <c r="F297" t="s">
+        <v>992</v>
+      </c>
+      <c r="G297" t="s">
+        <v>23</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I297" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" t="s">
+        <v>974</v>
+      </c>
+      <c r="B298" t="s">
+        <v>82</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D298" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" t="s">
+        <v>80</v>
+      </c>
+      <c r="F298" t="s">
+        <v>992</v>
+      </c>
+      <c r="G298" t="s">
+        <v>23</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I298" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" t="s">
+        <v>974</v>
+      </c>
+      <c r="B299" t="s">
+        <v>447</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D299" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299" t="s">
+        <v>80</v>
+      </c>
+      <c r="F299" t="s">
+        <v>992</v>
+      </c>
+      <c r="G299" t="s">
+        <v>23</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I299" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" t="s">
+        <v>974</v>
+      </c>
+      <c r="B300" t="s">
+        <v>19</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D300" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300" t="s">
+        <v>80</v>
+      </c>
+      <c r="F300" t="s">
+        <v>992</v>
+      </c>
+      <c r="G300" t="s">
+        <v>23</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I300" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" t="s">
+        <v>974</v>
+      </c>
+      <c r="B301" t="s">
+        <v>325</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D301" t="s">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>80</v>
+      </c>
+      <c r="F301" t="s">
+        <v>992</v>
+      </c>
+      <c r="G301" t="s">
+        <v>23</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I301" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" t="s">
+        <v>974</v>
+      </c>
+      <c r="B302" t="s">
+        <v>423</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D302" t="s">
+        <v>165</v>
+      </c>
+      <c r="E302" t="s">
+        <v>37</v>
+      </c>
+      <c r="F302" t="s">
+        <v>992</v>
+      </c>
+      <c r="G302" t="s">
+        <v>23</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I302" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" t="s">
+        <v>974</v>
+      </c>
+      <c r="B303" t="s">
+        <v>82</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D303" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" t="s">
+        <v>80</v>
+      </c>
+      <c r="F303" t="s">
+        <v>992</v>
+      </c>
+      <c r="G303" t="s">
+        <v>23</v>
+      </c>
+      <c r="H303" t="s">
+        <v>384</v>
+      </c>
+      <c r="I303" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" t="s">
+        <v>974</v>
+      </c>
+      <c r="B304" t="s">
+        <v>352</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D304" t="s">
+        <v>12</v>
+      </c>
+      <c r="E304" t="s">
+        <v>80</v>
+      </c>
+      <c r="F304" t="s">
+        <v>992</v>
+      </c>
+      <c r="G304" t="s">
+        <v>23</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I304" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" t="s">
+        <v>974</v>
+      </c>
+      <c r="B305" t="s">
+        <v>71</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D305" t="s">
+        <v>12</v>
+      </c>
+      <c r="E305" t="s">
+        <v>37</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G305" t="s">
+        <v>158</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I305" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" t="s">
+        <v>974</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D306" t="s">
+        <v>32</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G306" t="s">
+        <v>158</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I306" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" t="s">
+        <v>974</v>
+      </c>
+      <c r="B307" t="s">
+        <v>814</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D307" t="s">
+        <v>165</v>
+      </c>
+      <c r="E307" t="s">
+        <v>299</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G307" t="s">
+        <v>158</v>
+      </c>
+      <c r="H307" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I307" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" t="s">
+        <v>974</v>
+      </c>
+      <c r="B308" t="s">
+        <v>805</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D308" t="s">
+        <v>42</v>
+      </c>
+      <c r="E308" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G308" t="s">
+        <v>158</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I308" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" t="s">
+        <v>974</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D309" t="s">
+        <v>42</v>
+      </c>
+      <c r="E309" t="s">
+        <v>299</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G309" t="s">
+        <v>158</v>
+      </c>
+      <c r="H309" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I309" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" t="s">
+        <v>974</v>
+      </c>
+      <c r="B310" t="s">
+        <v>287</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D310" t="s">
+        <v>12</v>
+      </c>
+      <c r="E310" t="s">
+        <v>299</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G310" t="s">
+        <v>158</v>
+      </c>
+      <c r="H310" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I310" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" t="s">
+        <v>974</v>
+      </c>
+      <c r="B311" t="s">
+        <v>35</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D311" t="s">
+        <v>42</v>
+      </c>
+      <c r="E311" t="s">
+        <v>299</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G311" t="s">
+        <v>158</v>
+      </c>
+      <c r="H311" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I311" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" t="s">
+        <v>974</v>
+      </c>
+      <c r="B312" t="s">
+        <v>287</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D312" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312" t="s">
+        <v>59</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G312" t="s">
+        <v>158</v>
+      </c>
+      <c r="H312" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I312" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" t="s">
+        <v>974</v>
+      </c>
+      <c r="B313" t="s">
+        <v>19</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D313" t="s">
+        <v>32</v>
+      </c>
+      <c r="E313" t="s">
+        <v>37</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G313" t="s">
+        <v>158</v>
+      </c>
+      <c r="H313" t="s">
+        <v>518</v>
+      </c>
+      <c r="I313" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" t="s">
+        <v>974</v>
+      </c>
+      <c r="B314" t="s">
+        <v>35</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D314" t="s">
+        <v>32</v>
+      </c>
+      <c r="E314" t="s">
+        <v>59</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G314" t="s">
+        <v>947</v>
+      </c>
+      <c r="H314" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I314" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" t="s">
+        <v>974</v>
+      </c>
+      <c r="B315" t="s">
+        <v>89</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D315" t="s">
+        <v>32</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G315" t="s">
+        <v>947</v>
+      </c>
+      <c r="H315" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I315" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" t="s">
+        <v>974</v>
+      </c>
+      <c r="B316" t="s">
+        <v>30</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D316" t="s">
+        <v>165</v>
+      </c>
+      <c r="E316" t="s">
+        <v>80</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I316" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" t="s">
+        <v>974</v>
+      </c>
+      <c r="B317" t="s">
+        <v>19</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D317" t="s">
+        <v>12</v>
+      </c>
+      <c r="E317" t="s">
+        <v>59</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G317" t="s">
+        <v>947</v>
+      </c>
+      <c r="H317" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I317" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B318" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D318" t="s">
+        <v>165</v>
+      </c>
+      <c r="E318" t="s">
+        <v>21</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G318" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I318" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B319" t="s">
+        <v>670</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D319" t="s">
+        <v>165</v>
+      </c>
+      <c r="E319" t="s">
+        <v>84</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H319" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I319" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B320" t="s">
+        <v>30</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D320" t="s">
+        <v>165</v>
+      </c>
+      <c r="E320" t="s">
+        <v>792</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G320" t="s">
+        <v>273</v>
+      </c>
+      <c r="H320" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I320" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B321" t="s">
+        <v>71</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D321" t="s">
+        <v>165</v>
+      </c>
+      <c r="E321" t="s">
+        <v>792</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G321" t="s">
+        <v>273</v>
+      </c>
+      <c r="H321" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I321" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B322" t="s">
+        <v>82</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D322" t="s">
+        <v>165</v>
+      </c>
+      <c r="E322" t="s">
+        <v>13</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H322" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I322" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B323" t="s">
+        <v>328</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D323" t="s">
+        <v>32</v>
+      </c>
+      <c r="E323" t="s">
+        <v>80</v>
+      </c>
+      <c r="F323" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H323" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I323" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B324" t="s">
+        <v>483</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D324" t="s">
+        <v>165</v>
+      </c>
+      <c r="E324" t="s">
+        <v>299</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B325" t="s">
+        <v>19</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D325" t="s">
+        <v>12</v>
+      </c>
+      <c r="E325" t="s">
+        <v>59</v>
+      </c>
+      <c r="F325" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G325" t="s">
+        <v>231</v>
+      </c>
+      <c r="H325" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I325" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B326" t="s">
+        <v>483</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D326" t="s">
+        <v>12</v>
+      </c>
+      <c r="E326" t="s">
+        <v>21</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G326" t="s">
+        <v>231</v>
+      </c>
+      <c r="H326" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I326" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D327" t="s">
+        <v>165</v>
+      </c>
+      <c r="E327" t="s">
+        <v>21</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H327" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I327" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B328" t="s">
+        <v>670</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D328" t="s">
+        <v>165</v>
+      </c>
+      <c r="E328" t="s">
+        <v>84</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I328" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B329" t="s">
+        <v>30</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D329" t="s">
+        <v>165</v>
+      </c>
+      <c r="E329" t="s">
+        <v>792</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G329" t="s">
+        <v>273</v>
+      </c>
+      <c r="H329" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I329" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B330" t="s">
+        <v>71</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D330" t="s">
+        <v>165</v>
+      </c>
+      <c r="E330" t="s">
+        <v>792</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G330" t="s">
+        <v>273</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I330" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B331" t="s">
+        <v>82</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D331" t="s">
+        <v>165</v>
+      </c>
+      <c r="E331" t="s">
+        <v>13</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I331" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B332" t="s">
+        <v>328</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D332" t="s">
+        <v>32</v>
+      </c>
+      <c r="E332" t="s">
+        <v>80</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I332" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B333" t="s">
+        <v>483</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D333" t="s">
+        <v>165</v>
+      </c>
+      <c r="E333" t="s">
+        <v>299</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H333" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I333" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B334" t="s">
+        <v>19</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D334" t="s">
+        <v>12</v>
+      </c>
+      <c r="E334" t="s">
+        <v>59</v>
+      </c>
+      <c r="F334" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G334" t="s">
+        <v>231</v>
+      </c>
+      <c r="H334" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I334" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B335" t="s">
+        <v>483</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D335" t="s">
+        <v>12</v>
+      </c>
+      <c r="E335" t="s">
+        <v>21</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G335" t="s">
+        <v>231</v>
+      </c>
+      <c r="H335" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I335" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B336" t="s">
+        <v>19</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D336" t="s">
+        <v>32</v>
+      </c>
+      <c r="E336" t="s">
+        <v>84</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I336" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B337" t="s">
+        <v>325</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D337" t="s">
+        <v>32</v>
+      </c>
+      <c r="E337" t="s">
+        <v>21</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H337" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I337" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B338" t="s">
+        <v>82</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D338" t="s">
+        <v>42</v>
+      </c>
+      <c r="E338" t="s">
+        <v>21</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H338" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I338" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B339" t="s">
+        <v>19</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D339" t="s">
+        <v>42</v>
+      </c>
+      <c r="E339" t="s">
+        <v>21</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G339" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H339" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I339" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B340" t="s">
+        <v>30</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D340" t="s">
+        <v>12</v>
+      </c>
+      <c r="E340" t="s">
+        <v>21</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I340" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B341" t="s">
+        <v>99</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E341" t="s">
+        <v>566</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G341" t="s">
+        <v>668</v>
+      </c>
+      <c r="H341" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I341" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E342" t="s">
+        <v>13</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G342" t="s">
+        <v>668</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I342" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B343" t="s">
+        <v>89</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D343" t="s">
+        <v>12</v>
+      </c>
+      <c r="E343" t="s">
+        <v>37</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G343" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H343" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I343" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B344" t="s">
+        <v>71</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D344" t="s">
+        <v>646</v>
+      </c>
+      <c r="E344" t="s">
+        <v>788</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H344" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I344" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B345" t="s">
+        <v>19</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E345" t="s">
+        <v>13</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G345" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H345" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I345" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B346" t="s">
+        <v>82</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D346" t="s">
+        <v>646</v>
+      </c>
+      <c r="E346" t="s">
+        <v>465</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H346" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I346" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B347" t="s">
+        <v>82</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E347" t="s">
+        <v>566</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G347" t="s">
+        <v>668</v>
+      </c>
+      <c r="H347" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I347" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B348" t="s">
+        <v>190</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D348" t="s">
+        <v>12</v>
+      </c>
+      <c r="E348" t="s">
+        <v>21</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G348" t="s">
+        <v>668</v>
+      </c>
+      <c r="H348" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I348" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B349" t="s">
+        <v>19</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D349" t="s">
+        <v>646</v>
+      </c>
+      <c r="E349" t="s">
+        <v>13</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G349" t="s">
+        <v>668</v>
+      </c>
+      <c r="H349" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I349" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B350" t="s">
+        <v>30</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D350" t="s">
+        <v>12</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G350" t="s">
+        <v>668</v>
+      </c>
+      <c r="H350" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I350" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B351" t="s">
+        <v>190</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D351" t="s">
+        <v>646</v>
+      </c>
+      <c r="E351" t="s">
+        <v>566</v>
+      </c>
+      <c r="F351" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G351" t="s">
+        <v>668</v>
+      </c>
+      <c r="H351" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I351" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B352" t="s">
+        <v>89</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D352" t="s">
+        <v>12</v>
+      </c>
+      <c r="E352" t="s">
+        <v>566</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G352" t="s">
+        <v>668</v>
+      </c>
+      <c r="H352" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I352" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B353" t="s">
+        <v>30</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D353" t="s">
+        <v>646</v>
+      </c>
+      <c r="E353" t="s">
+        <v>566</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G353" t="s">
+        <v>158</v>
+      </c>
+      <c r="H353" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I353" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B354" t="s">
+        <v>429</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D354" t="s">
+        <v>646</v>
+      </c>
+      <c r="E354" t="s">
+        <v>465</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G354" t="s">
+        <v>158</v>
+      </c>
+      <c r="H354" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I354" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B355" t="s">
+        <v>10</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D355" t="s">
+        <v>646</v>
+      </c>
+      <c r="E355" t="s">
+        <v>566</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G355" t="s">
+        <v>158</v>
+      </c>
+      <c r="H355" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I355" t="s">
+        <v>1175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
